--- a/Sample_Bank_Data/DEC 2024.xlsx
+++ b/Sample_Bank_Data/DEC 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28906"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\OneDrive_2025-04-23\Sample Bank Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{12FA603B-38F0-4099-8E62-4CD6508E45A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C3D2FC7-F1EC-43A2-8744-344990D8BB68}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{12FA603B-38F0-4099-8E62-4CD6508E45A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52D16175-43DA-4274-9C74-CEF004740777}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="12" r:id="rId1"/>
@@ -20,8 +20,10 @@
     <sheet name="fact restructred" sheetId="10" r:id="rId5"/>
     <sheet name="rating" sheetId="5" r:id="rId6"/>
     <sheet name="Rating and PDS&amp;P_x0009_Moody's_x0009_Fitch_x0009_" sheetId="11" r:id="rId7"/>
-    <sheet name="Risk Limit" sheetId="13" r:id="rId8"/>
-    <sheet name="STAGING" sheetId="7" r:id="rId9"/>
+    <sheet name="PD" sheetId="15" r:id="rId8"/>
+    <sheet name="Risk Limit" sheetId="13" r:id="rId9"/>
+    <sheet name="Provision" sheetId="14" r:id="rId10"/>
+    <sheet name="STAGING" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'fact risk'!$B$1:$AD$51</definedName>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="217">
   <si>
     <t>Types of Collaterals</t>
   </si>
@@ -580,165 +582,105 @@
     <t>Internal Rating</t>
   </si>
   <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>Aaa</t>
+  </si>
+  <si>
+    <t>AA+</t>
+  </si>
+  <si>
+    <t>Aa1</t>
+  </si>
+  <si>
+    <t>Aa2</t>
+  </si>
+  <si>
+    <t>Baa1</t>
+  </si>
+  <si>
+    <t>Baa2</t>
+  </si>
+  <si>
+    <t>BBB-</t>
+  </si>
+  <si>
+    <t>Baa3</t>
+  </si>
+  <si>
+    <t>Ba1</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Ba2</t>
+  </si>
+  <si>
+    <t>BB-</t>
+  </si>
+  <si>
+    <t>Ba3</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>CCC+</t>
+  </si>
+  <si>
+    <t>Caa1</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>Caa2</t>
+  </si>
+  <si>
+    <t>CCC-</t>
+  </si>
+  <si>
+    <t>Caa3</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
     <t>PD 2024</t>
   </si>
   <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>Aaa</t>
-  </si>
-  <si>
-    <t>0.0020%</t>
-  </si>
-  <si>
-    <t>AA+</t>
-  </si>
-  <si>
-    <t>Aa1</t>
-  </si>
-  <si>
-    <t>0.0232%</t>
-  </si>
-  <si>
-    <t>Aa2</t>
-  </si>
-  <si>
-    <t>0.0518%</t>
-  </si>
-  <si>
-    <t>0.1112%</t>
-  </si>
-  <si>
-    <t>0.2080%</t>
-  </si>
-  <si>
-    <t>0.3796%</t>
-  </si>
-  <si>
-    <t>0.5940%</t>
-  </si>
-  <si>
-    <t>Baa1</t>
-  </si>
-  <si>
-    <t>0.9130%</t>
-  </si>
-  <si>
-    <t>Baa2</t>
-  </si>
-  <si>
-    <t>1.3200%</t>
-  </si>
-  <si>
-    <t>BBB-</t>
-  </si>
-  <si>
-    <t>Baa3</t>
-  </si>
-  <si>
-    <t>2.6180%</t>
-  </si>
-  <si>
-    <t>Ba1</t>
-  </si>
-  <si>
-    <t>4.6200%</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>Ba2</t>
-  </si>
-  <si>
-    <t>7.4800%</t>
-  </si>
-  <si>
-    <t>BB-</t>
-  </si>
-  <si>
-    <t>Ba3</t>
-  </si>
-  <si>
-    <t>10.7690%</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>15.2350%</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>19.9420%</t>
-  </si>
-  <si>
-    <t>B-</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>26.4440%</t>
-  </si>
-  <si>
-    <t>CCC+</t>
-  </si>
-  <si>
-    <t>Caa1</t>
-  </si>
-  <si>
-    <t>35.7268%</t>
-  </si>
-  <si>
-    <t>CCC</t>
-  </si>
-  <si>
-    <t>Caa2</t>
-  </si>
-  <si>
-    <t>48.2680%</t>
-  </si>
-  <si>
-    <t>CCC-</t>
-  </si>
-  <si>
-    <t>Caa3</t>
-  </si>
-  <si>
-    <t>72.8662%</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>Ca</t>
-  </si>
-  <si>
-    <t>100.0000%</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>DDD</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
     <t>Internal risk rating</t>
   </si>
   <si>
@@ -752,6 +694,12 @@
   </si>
   <si>
     <t>Group limit</t>
+  </si>
+  <si>
+    <t>Provision Stages</t>
+  </si>
+  <si>
+    <t>3F</t>
   </si>
 </sst>
 </file>
@@ -1312,6 +1260,71 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0905F75B-7DBD-4393-872A-B6EC856459F0}">
+  <dimension ref="B1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FE4088-AF22-41A1-89D6-9412CB39B032}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EAC753-FD4B-4174-9852-2B0C91699448}">
   <dimension ref="B1:F51"/>
@@ -7711,11 +7724,11 @@
       </c>
       <c r="F3" s="17">
         <f ca="1">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5396167.1200000001</v>
+        <v>5406076.1200000001</v>
       </c>
       <c r="G3" s="16">
         <f t="shared" ref="G3:G42" ca="1" si="0">C3-F3</f>
-        <v>21560978.479999997</v>
+        <v>21551069.479999997</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -7733,11 +7746,11 @@
       </c>
       <c r="F4" s="17">
         <f t="shared" ref="F4:F42" ca="1" si="1">(C4*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8090572.6000000006</v>
+        <v>8100119.6000000006</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>32336275.399999999</v>
+        <v>32326728.399999999</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -7755,11 +7768,11 @@
       </c>
       <c r="F5" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>10795096.08</v>
+        <v>10784209.08</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43101454.32</v>
+        <v>43112341.32</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30">
@@ -7777,11 +7790,11 @@
       </c>
       <c r="F6" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>13491007.560000001</v>
+        <v>13489880.560000001</v>
       </c>
       <c r="G6" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>53875245.239999995</v>
+        <v>53876372.239999995</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30">
@@ -7799,11 +7812,11 @@
       </c>
       <c r="F7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>16170733.039999999</v>
+        <v>16180808.039999999</v>
       </c>
       <c r="G7" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>64665222.159999989</v>
+        <v>64655147.159999989</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -7821,11 +7834,11 @@
       </c>
       <c r="F8" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>18875319.520000003</v>
+        <v>18867108.520000003</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>75430338.080000013</v>
+        <v>75438549.080000013</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30">
@@ -7843,11 +7856,11 @@
       </c>
       <c r="F9" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>21573586.200000003</v>
+        <v>21560915.200000003</v>
       </c>
       <c r="G9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>86186989.799999997</v>
+        <v>86199660.799999997</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -7865,11 +7878,11 @@
       </c>
       <c r="F10" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>24225918.68</v>
+        <v>24227862.68</v>
       </c>
       <c r="G10" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>96856519.719999999</v>
+        <v>96854575.719999999</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30">
@@ -7887,11 +7900,11 @@
       </c>
       <c r="F11" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>26627462.16</v>
+        <v>26628138.16</v>
       </c>
       <c r="G11" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>106446278.64</v>
+        <v>106445602.64</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -7909,11 +7922,11 @@
       </c>
       <c r="F12" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>29324211.640000001</v>
+        <v>29323478.640000001</v>
       </c>
       <c r="G12" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>117219231.55999999</v>
+        <v>117219964.55999999</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -7931,11 +7944,11 @@
       </c>
       <c r="F13" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>3321909.12</v>
+        <v>3321863.12</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>13286436.48</v>
+        <v>13286482.48</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -7953,11 +7966,11 @@
       </c>
       <c r="F14" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>6623675.6000000006</v>
+        <v>6625496.6000000006</v>
       </c>
       <c r="G14" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>26411172.399999999</v>
+        <v>26409351.399999999</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30">
@@ -7975,11 +7988,11 @@
       </c>
       <c r="F15" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>9901157.0800000001</v>
+        <v>9905441.0800000001</v>
       </c>
       <c r="G15" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>39560193.32</v>
+        <v>39555909.32</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -7997,11 +8010,11 @@
       </c>
       <c r="F16" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>13196621.560000002</v>
+        <v>13202389.560000002</v>
       </c>
       <c r="G16" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>52691231.240000002</v>
+        <v>52685463.240000002</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -8019,11 +8032,11 @@
       </c>
       <c r="F17" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>16467188.039999999</v>
+        <v>16465145.039999999</v>
       </c>
       <c r="G17" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>65847167.159999989</v>
+        <v>65849210.159999989</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -8041,11 +8054,11 @@
       </c>
       <c r="F18" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>19749661.520000003</v>
+        <v>19748850.520000003</v>
       </c>
       <c r="G18" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>78991196.080000013</v>
+        <v>78992007.080000013</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30">
@@ -8063,11 +8076,11 @@
       </c>
       <c r="F19" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>23031818.200000003</v>
+        <v>23049063.200000003</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>92120757.799999997</v>
+        <v>92103512.799999997</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -8085,11 +8098,11 @@
       </c>
       <c r="F20" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>26307428.68</v>
+        <v>26288968.68</v>
       </c>
       <c r="G20" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>105123809.72</v>
+        <v>105142269.72</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30">
@@ -8107,11 +8120,11 @@
       </c>
       <c r="F21" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>29300835.159999996</v>
+        <v>29290860.159999996</v>
       </c>
       <c r="G21" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>117078505.63999999</v>
+        <v>117088480.63999999</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -8129,11 +8142,11 @@
       </c>
       <c r="F22" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>3013985.6400000006</v>
+        <v>3013221.6400000006</v>
       </c>
       <c r="G22" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>11951857.560000001</v>
+        <v>11952621.560000001</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -8151,11 +8164,11 @@
       </c>
       <c r="F23" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>6288863.1200000001</v>
+        <v>6279087.1200000001</v>
       </c>
       <c r="G23" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>25103482.479999997</v>
+        <v>25113258.479999997</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -8173,11 +8186,11 @@
       </c>
       <c r="F24" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>9566012.5999999996</v>
+        <v>9584238.5999999996</v>
       </c>
       <c r="G24" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>38252835.399999999</v>
+        <v>38234609.399999999</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30">
@@ -8195,11 +8208,11 @@
       </c>
       <c r="F25" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>12870677.08</v>
+        <v>12849740.08</v>
       </c>
       <c r="G25" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>51374673.32</v>
+        <v>51395610.32</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -8217,11 +8230,11 @@
       </c>
       <c r="F26" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>16159139.560000001</v>
+        <v>16150654.560000001</v>
       </c>
       <c r="G26" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>64512713.239999995</v>
+        <v>64521198.239999995</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30">
@@ -8239,11 +8252,11 @@
       </c>
       <c r="F27" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>19433623.039999999</v>
+        <v>19422542.039999999</v>
       </c>
       <c r="G27" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>77664732.159999996</v>
+        <v>77675813.159999996</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -8261,11 +8274,11 @@
       </c>
       <c r="F28" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>22709676.520000003</v>
+        <v>22724263.520000003</v>
       </c>
       <c r="G28" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>90815181.080000013</v>
+        <v>90800594.080000013</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -8283,11 +8296,11 @@
       </c>
       <c r="F29" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>26011009.200000003</v>
+        <v>25996383.200000003</v>
       </c>
       <c r="G29" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>103925566.8</v>
+        <v>103940192.8</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30">
@@ -8305,11 +8318,11 @@
       </c>
       <c r="F30" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>29265937.680000003</v>
+        <v>29255702.680000003</v>
       </c>
       <c r="G30" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>116949300.72</v>
+        <v>116959535.72</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -8327,11 +8340,11 @@
       </c>
       <c r="F31" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>5622632.1600000001</v>
+        <v>5633212.1600000001</v>
       </c>
       <c r="G31" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>22484708.639999997</v>
+        <v>22474128.639999997</v>
       </c>
     </row>
     <row r="32" spans="2:7">
@@ -8349,11 +8362,11 @@
       </c>
       <c r="F32" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>8919906.6399999987</v>
+        <v>8908155.6399999987</v>
       </c>
       <c r="G32" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>35613936.559999995</v>
+        <v>35625687.559999995</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30">
@@ -8371,11 +8384,11 @@
       </c>
       <c r="F33" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>12202421.119999999</v>
+        <v>12213702.119999999</v>
       </c>
       <c r="G33" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>48757924.479999997</v>
+        <v>48746643.479999997</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -8393,11 +8406,11 @@
       </c>
       <c r="F34" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>15500368.600000001</v>
+        <v>15478773.600000001</v>
       </c>
       <c r="G34" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>61886479.399999999</v>
+        <v>61908074.399999999</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -8415,11 +8428,11 @@
       </c>
       <c r="F35" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>18763224.079999998</v>
+        <v>18776235.079999998</v>
       </c>
       <c r="G35" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>75050126.319999993</v>
+        <v>75037115.319999993</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30">
@@ -8437,11 +8450,11 @@
       </c>
       <c r="F36" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>22051685.560000002</v>
+        <v>22050882.560000002</v>
       </c>
       <c r="G36" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>88188167.239999995</v>
+        <v>88188970.239999995</v>
       </c>
     </row>
     <row r="37" spans="2:7">
@@ -8459,11 +8472,11 @@
       </c>
       <c r="F37" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>25355100.039999999</v>
+        <v>25340526.039999999</v>
       </c>
       <c r="G37" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>101311255.16</v>
+        <v>101325829.16</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -8481,11 +8494,11 @@
       </c>
       <c r="F38" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>28626081.52</v>
+        <v>28625567.52</v>
       </c>
       <c r="G38" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>114466776.08</v>
+        <v>114467290.08</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="30">
@@ -8503,11 +8516,11 @@
       </c>
       <c r="F39" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>5295179.2</v>
+        <v>5313289.2</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>21153396.800000001</v>
+        <v>21135286.800000001</v>
       </c>
     </row>
     <row r="40" spans="2:7">
@@ -8525,11 +8538,11 @@
       </c>
       <c r="F40" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>8561391.6799999997</v>
+        <v>8549218.6799999997</v>
       </c>
       <c r="G40" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>34165846.719999999</v>
+        <v>34178019.719999999</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -8547,11 +8560,11 @@
       </c>
       <c r="F41" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>11544198.160000002</v>
+        <v>11552462.160000002</v>
       </c>
       <c r="G41" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>46131142.640000001</v>
+        <v>46122878.640000001</v>
       </c>
     </row>
     <row r="42" spans="2:7">
@@ -8569,11 +8582,11 @@
       </c>
       <c r="F42" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>14842292.640000001</v>
+        <v>14840161.640000001</v>
       </c>
       <c r="G42" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>59259550.560000002</v>
+        <v>59261681.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -9975,15 +9988,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABFBA4B-6F4E-444D-93B2-E23E2D3BEB6D}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="H1:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:5" ht="30.75">
       <c r="A1" s="23" t="s">
         <v>172</v>
       </c>
@@ -9999,19 +10012,16 @@
       <c r="E1" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="23" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>178</v>
       </c>
-      <c r="B2" t="s">
-        <v>179</v>
-      </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -10019,22 +10029,16 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>179</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" t="s">
-        <v>182</v>
-      </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -10042,19 +10046,13 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
         <v>170</v>
@@ -10065,14 +10063,8 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -10088,14 +10080,8 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -10111,14 +10097,8 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
-        <v>162</v>
-      </c>
-      <c r="I6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -10134,14 +10114,8 @@
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>167</v>
       </c>
@@ -10157,19 +10131,13 @@
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
-        <v>164</v>
-      </c>
-      <c r="I8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
         <v>166</v>
@@ -10180,19 +10148,13 @@
       <c r="E9">
         <v>8</v>
       </c>
-      <c r="H9" t="s">
-        <v>190</v>
-      </c>
-      <c r="I9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
         <v>165</v>
@@ -10203,22 +10165,16 @@
       <c r="E10">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
-        <v>192</v>
-      </c>
-      <c r="I10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -10226,19 +10182,13 @@
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="H11" t="s">
-        <v>195</v>
-      </c>
-      <c r="I11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
         <v>171</v>
@@ -10249,22 +10199,16 @@
       <c r="E12">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
-        <v>197</v>
-      </c>
-      <c r="I12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -10272,22 +10216,16 @@
       <c r="E13">
         <v>12</v>
       </c>
-      <c r="H13" t="s">
-        <v>200</v>
-      </c>
-      <c r="I13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -10295,19 +10233,13 @@
       <c r="E14">
         <v>13</v>
       </c>
-      <c r="H14" t="s">
-        <v>203</v>
-      </c>
-      <c r="I14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>169</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C15" t="s">
         <v>169</v>
@@ -10318,22 +10250,16 @@
       <c r="E15">
         <v>14</v>
       </c>
-      <c r="H15" t="s">
-        <v>205</v>
-      </c>
-      <c r="I15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -10341,22 +10267,16 @@
       <c r="E16">
         <v>15</v>
       </c>
-      <c r="H16" t="s">
-        <v>208</v>
-      </c>
-      <c r="I16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -10364,22 +10284,16 @@
       <c r="E17">
         <v>16</v>
       </c>
-      <c r="H17" t="s">
-        <v>211</v>
-      </c>
-      <c r="I17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -10387,22 +10301,16 @@
       <c r="E18">
         <v>17</v>
       </c>
-      <c r="H18" t="s">
-        <v>214</v>
-      </c>
-      <c r="I18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -10410,22 +10318,16 @@
       <c r="E19">
         <v>17</v>
       </c>
-      <c r="H19" t="s">
-        <v>217</v>
-      </c>
-      <c r="I19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -10433,22 +10335,16 @@
       <c r="E20">
         <v>17</v>
       </c>
-      <c r="H20" t="s">
-        <v>220</v>
-      </c>
-      <c r="I20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -10457,15 +10353,18 @@
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>223</v>
-      </c>
-      <c r="I21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="I21">
+        <v>17</v>
+      </c>
+      <c r="J21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="C22" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -10474,40 +10373,40 @@
         <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>225</v>
-      </c>
-      <c r="I22" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="C25" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -10519,10 +10418,243 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB56A6F-4E46-4D06-8815-3A068D500C06}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30.75">
+      <c r="A1" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5.1799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.11119999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0.37959999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2.6179999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>10.769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>15.234999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>19.942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>26.443999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>35.726799999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>48.268000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>72.866200000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C2824F-C785-49BB-BD29-8875E0B5CDF3}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -10541,22 +10673,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="27" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -10843,16 +10975,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FE4088-AF22-41A1-89D6-9412CB39B032}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Sample_Bank_Data/DEC 2024.xlsx
+++ b/Sample_Bank_Data/DEC 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6C7F03E5-FED8-4AB7-9A2E-B0052D616C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C47F5EA-2BB6-4630-880D-666DCB608B37}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{6C7F03E5-FED8-4AB7-9A2E-B0052D616C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12B0D707-34B9-4D85-A064-33D7D1E08782}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="308">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -865,370 +865,115 @@
     <t>Shares6</t>
   </si>
   <si>
+    <t>Land6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest2</t>
+  </si>
+  <si>
+    <t>Gold4</t>
+  </si>
+  <si>
+    <t>Others4</t>
+  </si>
+  <si>
+    <t>Land7</t>
+  </si>
+  <si>
+    <t>Land8</t>
+  </si>
+  <si>
+    <t>Shares7</t>
+  </si>
+  <si>
+    <t>Shares9</t>
+  </si>
+  <si>
+    <t>Others5</t>
+  </si>
+  <si>
+    <t>Others6</t>
+  </si>
+  <si>
+    <t>Building7</t>
+  </si>
+  <si>
+    <t>Land9</t>
+  </si>
+  <si>
+    <t>Cash3</t>
+  </si>
+  <si>
+    <t>Risk Free Assest3</t>
+  </si>
+  <si>
+    <t>Others7</t>
+  </si>
+  <si>
+    <t>Cash4</t>
+  </si>
+  <si>
+    <t>Risk Free Assest4</t>
+  </si>
+  <si>
+    <t>Others8</t>
+  </si>
+  <si>
+    <t>Others9</t>
+  </si>
+  <si>
+    <t>Building8</t>
+  </si>
+  <si>
+    <t>Building9</t>
+  </si>
+  <si>
+    <t>Cash5</t>
+  </si>
+  <si>
+    <t>Gold5</t>
+  </si>
+  <si>
+    <t>Gold6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest5</t>
+  </si>
+  <si>
+    <t>Shares8</t>
+  </si>
+  <si>
+    <t>Cash6</t>
+  </si>
+  <si>
+    <t>Gold7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest8</t>
+  </si>
+  <si>
+    <t>Risk Free Assest9</t>
+  </si>
+  <si>
+    <t>Cash7</t>
+  </si>
+  <si>
+    <t>Shares10</t>
+  </si>
+  <si>
+    <t>Shares11</t>
+  </si>
+  <si>
+    <t>Shares12</t>
+  </si>
+  <si>
     <t>Building6</t>
-  </si>
-  <si>
-    <t>Land6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest2</t>
-  </si>
-  <si>
-    <t>Gold4</t>
-  </si>
-  <si>
-    <t>Others4</t>
-  </si>
-  <si>
-    <t>Land7</t>
-  </si>
-  <si>
-    <t>Land8</t>
-  </si>
-  <si>
-    <t>Shares7</t>
-  </si>
-  <si>
-    <t>Shares8</t>
-  </si>
-  <si>
-    <t>Others5</t>
-  </si>
-  <si>
-    <t>Shares9</t>
-  </si>
-  <si>
-    <t>Shares10</t>
-  </si>
-  <si>
-    <t>Others6</t>
-  </si>
-  <si>
-    <t>Building7</t>
-  </si>
-  <si>
-    <t>Land9</t>
-  </si>
-  <si>
-    <t>Cash3</t>
-  </si>
-  <si>
-    <t>Risk Free Assest3</t>
-  </si>
-  <si>
-    <t>Others7</t>
-  </si>
-  <si>
-    <t>Cash4</t>
-  </si>
-  <si>
-    <t>Risk Free Assest4</t>
-  </si>
-  <si>
-    <t>Others8</t>
-  </si>
-  <si>
-    <t>Land10</t>
-  </si>
-  <si>
-    <t>Land11</t>
-  </si>
-  <si>
-    <t>Others9</t>
-  </si>
-  <si>
-    <t>Shares11</t>
-  </si>
-  <si>
-    <t>Shares12</t>
-  </si>
-  <si>
-    <t>Others10</t>
-  </si>
-  <si>
-    <t>Land12</t>
-  </si>
-  <si>
-    <t>Building8</t>
-  </si>
-  <si>
-    <t>Others11</t>
-  </si>
-  <si>
-    <t>Shares13</t>
-  </si>
-  <si>
-    <t>Shares14</t>
-  </si>
-  <si>
-    <t>Others12</t>
-  </si>
-  <si>
-    <t>Building9</t>
-  </si>
-  <si>
-    <t>Building10</t>
-  </si>
-  <si>
-    <t>Others13</t>
-  </si>
-  <si>
-    <t>Cash5</t>
-  </si>
-  <si>
-    <t>Gold5</t>
-  </si>
-  <si>
-    <t>Others14</t>
-  </si>
-  <si>
-    <t>Shares15</t>
-  </si>
-  <si>
-    <t>Shares16</t>
-  </si>
-  <si>
-    <t>Others15</t>
-  </si>
-  <si>
-    <t>Building11</t>
-  </si>
-  <si>
-    <t>Building12</t>
-  </si>
-  <si>
-    <t>Shares17</t>
-  </si>
-  <si>
-    <t>Shares18</t>
-  </si>
-  <si>
-    <t>Others16</t>
-  </si>
-  <si>
-    <t>Others17</t>
-  </si>
-  <si>
-    <t>Others18</t>
-  </si>
-  <si>
-    <t>Land13</t>
-  </si>
-  <si>
-    <t>Building13</t>
-  </si>
-  <si>
-    <t>Gold6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest5</t>
-  </si>
-  <si>
-    <t>Others19</t>
-  </si>
-  <si>
-    <t>Building14</t>
-  </si>
-  <si>
-    <t>Land14</t>
-  </si>
-  <si>
-    <t>Shares19</t>
-  </si>
-  <si>
-    <t>Shares20</t>
-  </si>
-  <si>
-    <t>Others20</t>
-  </si>
-  <si>
-    <t>Others21</t>
-  </si>
-  <si>
-    <t>Cash6</t>
-  </si>
-  <si>
-    <t>Gold7</t>
-  </si>
-  <si>
-    <t>Shares21</t>
-  </si>
-  <si>
-    <t>Shares22</t>
-  </si>
-  <si>
-    <t>Others22</t>
-  </si>
-  <si>
-    <t>Land15</t>
-  </si>
-  <si>
-    <t>Building15</t>
-  </si>
-  <si>
-    <t>Risk Free Assest6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest7</t>
-  </si>
-  <si>
-    <t>Others23</t>
-  </si>
-  <si>
-    <t>Shares23</t>
-  </si>
-  <si>
-    <t>Shares24</t>
-  </si>
-  <si>
-    <t>Others24</t>
-  </si>
-  <si>
-    <t>Gold8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest8</t>
-  </si>
-  <si>
-    <t>Others25</t>
-  </si>
-  <si>
-    <t>Risk Free Assest9</t>
-  </si>
-  <si>
-    <t>Risk Free Assest10</t>
-  </si>
-  <si>
-    <t>Shares25</t>
-  </si>
-  <si>
-    <t>Shares26</t>
-  </si>
-  <si>
-    <t>Others26</t>
-  </si>
-  <si>
-    <t>Land16</t>
-  </si>
-  <si>
-    <t>Building16</t>
-  </si>
-  <si>
-    <t>Land17</t>
-  </si>
-  <si>
-    <t>Building17</t>
-  </si>
-  <si>
-    <t>Shares27</t>
-  </si>
-  <si>
-    <t>Shares28</t>
-  </si>
-  <si>
-    <t>Others27</t>
-  </si>
-  <si>
-    <t>Building18</t>
-  </si>
-  <si>
-    <t>Building19</t>
-  </si>
-  <si>
-    <t>Cash7</t>
-  </si>
-  <si>
-    <t>Risk Free Assest11</t>
-  </si>
-  <si>
-    <t>Building20</t>
-  </si>
-  <si>
-    <t>Building21</t>
-  </si>
-  <si>
-    <t>Cash8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest12</t>
-  </si>
-  <si>
-    <t>Shares29</t>
-  </si>
-  <si>
-    <t>Shares30</t>
-  </si>
-  <si>
-    <t>Building22</t>
-  </si>
-  <si>
-    <t>Building23</t>
-  </si>
-  <si>
-    <t>Others28</t>
-  </si>
-  <si>
-    <t>Building24</t>
-  </si>
-  <si>
-    <t>Land18</t>
-  </si>
-  <si>
-    <t>Cash9</t>
-  </si>
-  <si>
-    <t>Gold9</t>
-  </si>
-  <si>
-    <t>Shares31</t>
-  </si>
-  <si>
-    <t>Shares32</t>
-  </si>
-  <si>
-    <t>Others29</t>
-  </si>
-  <si>
-    <t>Cash10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest13</t>
-  </si>
-  <si>
-    <t>Others30</t>
-  </si>
-  <si>
-    <t>Building25</t>
-  </si>
-  <si>
-    <t>Land19</t>
-  </si>
-  <si>
-    <t>Shares33</t>
-  </si>
-  <si>
-    <t>Shares34</t>
-  </si>
-  <si>
-    <t>Shares35</t>
-  </si>
-  <si>
-    <t>Shares36</t>
-  </si>
-  <si>
-    <t>Others31</t>
-  </si>
-  <si>
-    <t>Building26</t>
-  </si>
-  <si>
-    <t>Land20</t>
-  </si>
-  <si>
-    <t>Gold10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest14</t>
   </si>
 </sst>
 </file>
@@ -1988,7 +1733,7 @@
   <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A148"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2851,7 +2596,7 @@
         <v>240</v>
       </c>
       <c r="I27" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -2883,7 +2628,7 @@
         <v>240</v>
       </c>
       <c r="I28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -2915,7 +2660,7 @@
         <v>248</v>
       </c>
       <c r="I29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -2947,7 +2692,7 @@
         <v>248</v>
       </c>
       <c r="I30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -2979,7 +2724,7 @@
         <v>243</v>
       </c>
       <c r="I31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -3011,7 +2756,7 @@
         <v>240</v>
       </c>
       <c r="I32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -3043,7 +2788,7 @@
         <v>240</v>
       </c>
       <c r="I33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -3075,7 +2820,7 @@
         <v>255</v>
       </c>
       <c r="I34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -3107,7 +2852,7 @@
         <v>255</v>
       </c>
       <c r="I35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3139,7 +2884,7 @@
         <v>243</v>
       </c>
       <c r="I36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -3171,7 +2916,7 @@
         <v>255</v>
       </c>
       <c r="I37" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -3203,7 +2948,7 @@
         <v>255</v>
       </c>
       <c r="I38" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -3235,7 +2980,7 @@
         <v>243</v>
       </c>
       <c r="I39" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -3267,7 +3012,7 @@
         <v>240</v>
       </c>
       <c r="I40" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -3299,7 +3044,7 @@
         <v>240</v>
       </c>
       <c r="I41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -3331,7 +3076,7 @@
         <v>248</v>
       </c>
       <c r="I42" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -3363,7 +3108,7 @@
         <v>248</v>
       </c>
       <c r="I43" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -3395,7 +3140,7 @@
         <v>243</v>
       </c>
       <c r="I44" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -3427,7 +3172,7 @@
         <v>248</v>
       </c>
       <c r="I45" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -3459,7 +3204,7 @@
         <v>248</v>
       </c>
       <c r="I46" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -3491,7 +3236,7 @@
         <v>243</v>
       </c>
       <c r="I47" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -3523,7 +3268,7 @@
         <v>240</v>
       </c>
       <c r="I48" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -3555,7 +3300,7 @@
         <v>240</v>
       </c>
       <c r="I49" t="s">
-        <v>293</v>
+        <v>245</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -3587,7 +3332,7 @@
         <v>243</v>
       </c>
       <c r="I50" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -3619,7 +3364,7 @@
         <v>255</v>
       </c>
       <c r="I51" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -3651,7 +3396,7 @@
         <v>255</v>
       </c>
       <c r="I52" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -3683,7 +3428,7 @@
         <v>243</v>
       </c>
       <c r="I53" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -3715,7 +3460,7 @@
         <v>240</v>
       </c>
       <c r="I54" t="s">
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -3747,7 +3492,7 @@
         <v>240</v>
       </c>
       <c r="I55" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -3779,7 +3524,7 @@
         <v>243</v>
       </c>
       <c r="I56" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -3811,7 +3556,7 @@
         <v>255</v>
       </c>
       <c r="I57" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -3843,7 +3588,7 @@
         <v>255</v>
       </c>
       <c r="I58" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -3875,7 +3620,7 @@
         <v>243</v>
       </c>
       <c r="I59" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -3907,7 +3652,7 @@
         <v>240</v>
       </c>
       <c r="I60" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -3939,7 +3684,7 @@
         <v>240</v>
       </c>
       <c r="I61" t="s">
-        <v>305</v>
+        <v>241</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3971,7 +3716,7 @@
         <v>243</v>
       </c>
       <c r="I62" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -4003,7 +3748,7 @@
         <v>248</v>
       </c>
       <c r="I63" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -4035,7 +3780,7 @@
         <v>248</v>
       </c>
       <c r="I64" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -4067,7 +3812,7 @@
         <v>243</v>
       </c>
       <c r="I65" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -4099,7 +3844,7 @@
         <v>255</v>
       </c>
       <c r="I66" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -4131,7 +3876,7 @@
         <v>255</v>
       </c>
       <c r="I67" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -4163,7 +3908,7 @@
         <v>243</v>
       </c>
       <c r="I68" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -4195,7 +3940,7 @@
         <v>240</v>
       </c>
       <c r="I69" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -4227,7 +3972,7 @@
         <v>240</v>
       </c>
       <c r="I70" t="s">
-        <v>314</v>
+        <v>252</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -4259,7 +4004,7 @@
         <v>255</v>
       </c>
       <c r="I71" t="s">
-        <v>315</v>
+        <v>257</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -4291,7 +4036,7 @@
         <v>255</v>
       </c>
       <c r="I72" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -4323,7 +4068,7 @@
         <v>243</v>
       </c>
       <c r="I73" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -4355,7 +4100,7 @@
         <v>243</v>
       </c>
       <c r="I74" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -4387,7 +4132,7 @@
         <v>243</v>
       </c>
       <c r="I75" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -4419,7 +4164,7 @@
         <v>240</v>
       </c>
       <c r="I76" t="s">
-        <v>320</v>
+        <v>242</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -4451,7 +4196,7 @@
         <v>240</v>
       </c>
       <c r="I77" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -4483,7 +4228,7 @@
         <v>248</v>
       </c>
       <c r="I78" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -4515,7 +4260,7 @@
         <v>248</v>
       </c>
       <c r="I79" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -4547,7 +4292,7 @@
         <v>243</v>
       </c>
       <c r="I80" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -4579,7 +4324,7 @@
         <v>240</v>
       </c>
       <c r="I81" t="s">
-        <v>325</v>
+        <v>252</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -4611,7 +4356,7 @@
         <v>240</v>
       </c>
       <c r="I82" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -4643,7 +4388,7 @@
         <v>255</v>
       </c>
       <c r="I83" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -4675,7 +4420,7 @@
         <v>255</v>
       </c>
       <c r="I84" t="s">
-        <v>328</v>
+        <v>259</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -4707,7 +4452,7 @@
         <v>243</v>
       </c>
       <c r="I85" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -4739,7 +4484,7 @@
         <v>243</v>
       </c>
       <c r="I86" t="s">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -4771,7 +4516,7 @@
         <v>248</v>
       </c>
       <c r="I87" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -4803,7 +4548,7 @@
         <v>248</v>
       </c>
       <c r="I88" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -4835,7 +4580,7 @@
         <v>255</v>
       </c>
       <c r="I89" t="s">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -4867,7 +4612,7 @@
         <v>255</v>
       </c>
       <c r="I90" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -4899,7 +4644,7 @@
         <v>243</v>
       </c>
       <c r="I91" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -4931,7 +4676,7 @@
         <v>240</v>
       </c>
       <c r="I92" t="s">
-        <v>336</v>
+        <v>271</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -4963,7 +4708,7 @@
         <v>240</v>
       </c>
       <c r="I93" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -4995,7 +4740,7 @@
         <v>248</v>
       </c>
       <c r="I94" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -5027,7 +4772,7 @@
         <v>248</v>
       </c>
       <c r="I95" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -5059,7 +4804,7 @@
         <v>243</v>
       </c>
       <c r="I96" t="s">
-        <v>340</v>
+        <v>279</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -5091,7 +4836,7 @@
         <v>255</v>
       </c>
       <c r="I97" t="s">
-        <v>341</v>
+        <v>257</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -5123,7 +4868,7 @@
         <v>255</v>
       </c>
       <c r="I98" t="s">
-        <v>342</v>
+        <v>270</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -5155,7 +4900,7 @@
         <v>243</v>
       </c>
       <c r="I99" t="s">
-        <v>343</v>
+        <v>279</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -5187,7 +4932,7 @@
         <v>248</v>
       </c>
       <c r="I100" t="s">
-        <v>344</v>
+        <v>263</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -5219,7 +4964,7 @@
         <v>248</v>
       </c>
       <c r="I101" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -5251,7 +4996,7 @@
         <v>243</v>
       </c>
       <c r="I102" t="s">
-        <v>346</v>
+        <v>244</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -5283,7 +5028,7 @@
         <v>248</v>
       </c>
       <c r="I103" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -5315,7 +5060,7 @@
         <v>248</v>
       </c>
       <c r="I104" t="s">
-        <v>348</v>
+        <v>267</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -5347,7 +5092,7 @@
         <v>255</v>
       </c>
       <c r="I105" t="s">
-        <v>349</v>
+        <v>269</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -5379,7 +5124,7 @@
         <v>255</v>
       </c>
       <c r="I106" t="s">
-        <v>350</v>
+        <v>277</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -5411,7 +5156,7 @@
         <v>243</v>
       </c>
       <c r="I107" t="s">
-        <v>351</v>
+        <v>279</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -5443,7 +5188,7 @@
         <v>240</v>
       </c>
       <c r="I108" t="s">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -5475,7 +5220,7 @@
         <v>240</v>
       </c>
       <c r="I109" t="s">
-        <v>353</v>
+        <v>261</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -5507,7 +5252,7 @@
         <v>240</v>
       </c>
       <c r="I110" t="s">
-        <v>354</v>
+        <v>262</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -5539,7 +5284,7 @@
         <v>240</v>
       </c>
       <c r="I111" t="s">
-        <v>355</v>
+        <v>252</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -5571,7 +5316,7 @@
         <v>255</v>
       </c>
       <c r="I112" t="s">
-        <v>356</v>
+        <v>259</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -5603,7 +5348,7 @@
         <v>255</v>
       </c>
       <c r="I113" t="s">
-        <v>357</v>
+        <v>258</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -5635,7 +5380,7 @@
         <v>243</v>
       </c>
       <c r="I114" t="s">
-        <v>358</v>
+        <v>274</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -5667,7 +5412,7 @@
         <v>240</v>
       </c>
       <c r="I115" t="s">
-        <v>359</v>
+        <v>253</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -5699,7 +5444,7 @@
         <v>240</v>
       </c>
       <c r="I116" t="s">
-        <v>360</v>
+        <v>246</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -5731,7 +5476,7 @@
         <v>248</v>
       </c>
       <c r="I117" t="s">
-        <v>361</v>
+        <v>303</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -5763,7 +5508,7 @@
         <v>248</v>
       </c>
       <c r="I118" t="s">
-        <v>362</v>
+        <v>272</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -5795,7 +5540,7 @@
         <v>240</v>
       </c>
       <c r="I119" t="s">
-        <v>363</v>
+        <v>261</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -5827,7 +5572,7 @@
         <v>240</v>
       </c>
       <c r="I120" t="s">
-        <v>364</v>
+        <v>241</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -5859,7 +5604,7 @@
         <v>248</v>
       </c>
       <c r="I121" t="s">
-        <v>365</v>
+        <v>292</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -5891,7 +5636,7 @@
         <v>248</v>
       </c>
       <c r="I122" t="s">
-        <v>366</v>
+        <v>272</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -5923,7 +5668,7 @@
         <v>255</v>
       </c>
       <c r="I123" t="s">
-        <v>367</v>
+        <v>257</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -5955,7 +5700,7 @@
         <v>255</v>
       </c>
       <c r="I124" t="s">
-        <v>368</v>
+        <v>304</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -5987,7 +5732,7 @@
         <v>240</v>
       </c>
       <c r="I125" t="s">
-        <v>369</v>
+        <v>291</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -6019,7 +5764,7 @@
         <v>240</v>
       </c>
       <c r="I126" t="s">
-        <v>370</v>
+        <v>281</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -6051,7 +5796,7 @@
         <v>243</v>
       </c>
       <c r="I127" t="s">
-        <v>371</v>
+        <v>289</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -6083,7 +5828,7 @@
         <v>240</v>
       </c>
       <c r="I128" t="s">
-        <v>372</v>
+        <v>290</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -6115,7 +5860,7 @@
         <v>240</v>
       </c>
       <c r="I129" t="s">
-        <v>373</v>
+        <v>266</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -6147,7 +5892,7 @@
         <v>248</v>
       </c>
       <c r="I130" t="s">
-        <v>374</v>
+        <v>249</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -6179,7 +5924,7 @@
         <v>248</v>
       </c>
       <c r="I131" t="s">
-        <v>375</v>
+        <v>268</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -6211,7 +5956,7 @@
         <v>255</v>
       </c>
       <c r="I132" t="s">
-        <v>376</v>
+        <v>256</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -6243,7 +5988,7 @@
         <v>255</v>
       </c>
       <c r="I133" t="s">
-        <v>377</v>
+        <v>305</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -6275,7 +6020,7 @@
         <v>243</v>
       </c>
       <c r="I134" t="s">
-        <v>378</v>
+        <v>285</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -6307,7 +6052,7 @@
         <v>248</v>
       </c>
       <c r="I135" t="s">
-        <v>379</v>
+        <v>264</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -6339,7 +6084,7 @@
         <v>248</v>
       </c>
       <c r="I136" t="s">
-        <v>380</v>
+        <v>287</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -6371,7 +6116,7 @@
         <v>243</v>
       </c>
       <c r="I137" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -6403,7 +6148,7 @@
         <v>240</v>
       </c>
       <c r="I138" t="s">
-        <v>382</v>
+        <v>252</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -6435,7 +6180,7 @@
         <v>240</v>
       </c>
       <c r="I139" t="s">
-        <v>383</v>
+        <v>245</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -6467,7 +6212,7 @@
         <v>255</v>
       </c>
       <c r="I140" t="s">
-        <v>384</v>
+        <v>270</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -6499,7 +6244,7 @@
         <v>255</v>
       </c>
       <c r="I141" t="s">
-        <v>385</v>
+        <v>256</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -6531,7 +6276,7 @@
         <v>255</v>
       </c>
       <c r="I142" t="s">
-        <v>386</v>
+        <v>296</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -6563,7 +6308,7 @@
         <v>255</v>
       </c>
       <c r="I143" t="s">
-        <v>387</v>
+        <v>306</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -6595,7 +6340,7 @@
         <v>243</v>
       </c>
       <c r="I144" t="s">
-        <v>388</v>
+        <v>288</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -6627,7 +6372,7 @@
         <v>240</v>
       </c>
       <c r="I145" t="s">
-        <v>389</v>
+        <v>307</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -6659,7 +6404,7 @@
         <v>240</v>
       </c>
       <c r="I146" t="s">
-        <v>390</v>
+        <v>266</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -6691,7 +6436,7 @@
         <v>248</v>
       </c>
       <c r="I147" t="s">
-        <v>391</v>
+        <v>250</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -6723,7 +6468,7 @@
         <v>248</v>
       </c>
       <c r="I148" t="s">
-        <v>392</v>
+        <v>284</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -12828,11 +12573,11 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5392586.120000001</v>
+        <v>5403349.120000001</v>
       </c>
       <c r="G3" s="27">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21564559.48</v>
+        <v>21553796.48</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -12850,11 +12595,11 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8089978.6000000006</v>
+        <v>8093182.6000000006</v>
       </c>
       <c r="G4" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>32336869.399999999</v>
+        <v>32333665.399999999</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -12872,11 +12617,11 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>10793548.08</v>
+        <v>10793172.08</v>
       </c>
       <c r="G5" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>43103002.32</v>
+        <v>43103378.32</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1">
@@ -12894,11 +12639,11 @@
       </c>
       <c r="F6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13482883.560000001</v>
+        <v>13494076.560000001</v>
       </c>
       <c r="G6" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>53883369.239999995</v>
+        <v>53872176.239999995</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1">
@@ -12916,11 +12661,11 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16177458.039999999</v>
+        <v>16184621.039999999</v>
       </c>
       <c r="G7" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64658497.159999989</v>
+        <v>64651334.159999989</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -12938,11 +12683,11 @@
       </c>
       <c r="F8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18862188.520000003</v>
+        <v>18877492.520000003</v>
       </c>
       <c r="G8" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75443469.080000013</v>
+        <v>75428165.080000013</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1">
@@ -12960,11 +12705,11 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>21567287.200000003</v>
+        <v>21557432.200000003</v>
       </c>
       <c r="G9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>86193288.799999997</v>
+        <v>86203143.799999997</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -12982,11 +12727,11 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>24239996.680000003</v>
+        <v>24226234.680000003</v>
       </c>
       <c r="G10" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>96842441.719999999</v>
+        <v>96856203.719999999</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1">
@@ -13004,11 +12749,11 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26637231.16</v>
+        <v>26637641.16</v>
       </c>
       <c r="G11" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>106436509.64</v>
+        <v>106436099.64</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -13026,11 +12771,11 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29327760.640000001</v>
+        <v>29321094.640000001</v>
       </c>
       <c r="G12" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117215682.55999999</v>
+        <v>117222348.55999999</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -13048,11 +12793,11 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3322174.12</v>
+        <v>3345870.12</v>
       </c>
       <c r="G13" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>13286171.48</v>
+        <v>13262475.48</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -13070,11 +12815,11 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6611505.6000000006</v>
+        <v>6608641.6000000006</v>
       </c>
       <c r="G14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>26423342.399999999</v>
+        <v>26426206.399999999</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" customHeight="1">
@@ -13092,11 +12837,11 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9903988.0800000001</v>
+        <v>9901867.0800000001</v>
       </c>
       <c r="G15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>39557362.32</v>
+        <v>39559483.32</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -13114,11 +12859,11 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13198333.560000001</v>
+        <v>13183885.560000001</v>
       </c>
       <c r="G16" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>52689519.239999995</v>
+        <v>52703967.239999995</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -13136,11 +12881,11 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16473503.039999999</v>
+        <v>16478198.039999999</v>
       </c>
       <c r="G17" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>65840852.159999989</v>
+        <v>65836157.159999989</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -13158,11 +12903,11 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19771173.520000003</v>
+        <v>19761056.520000003</v>
       </c>
       <c r="G18" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>78969684.080000013</v>
+        <v>78979801.080000013</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
@@ -13180,11 +12925,11 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>23039135.200000003</v>
+        <v>23031027.200000003</v>
       </c>
       <c r="G19" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>92113440.799999997</v>
+        <v>92121548.799999997</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -13202,11 +12947,11 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26290999.680000003</v>
+        <v>26288848.680000003</v>
       </c>
       <c r="G20" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>105140238.72</v>
+        <v>105142389.72</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1">
@@ -13224,11 +12969,11 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29286071.160000004</v>
+        <v>29287394.160000004</v>
       </c>
       <c r="G21" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117093269.64000002</v>
+        <v>117091946.64000002</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -13246,11 +12991,11 @@
       </c>
       <c r="F22" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3006971.64</v>
+        <v>3015948.64</v>
       </c>
       <c r="G22" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>11958871.559999999</v>
+        <v>11949894.559999999</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -13268,11 +13013,11 @@
       </c>
       <c r="F23" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6294742.120000001</v>
+        <v>6292302.120000001</v>
       </c>
       <c r="G23" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>25097603.48</v>
+        <v>25100043.48</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -13290,11 +13035,11 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9567220.5999999996</v>
+        <v>9580071.5999999996</v>
       </c>
       <c r="G24" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>38251627.399999999</v>
+        <v>38238776.399999999</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1">
@@ -13312,11 +13057,11 @@
       </c>
       <c r="F25" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12865764.08</v>
+        <v>12870075.08</v>
       </c>
       <c r="G25" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>51379586.32</v>
+        <v>51375275.32</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -13334,11 +13079,11 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16139055.560000001</v>
+        <v>16144009.560000001</v>
       </c>
       <c r="G26" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64532797.239999995</v>
+        <v>64527843.239999995</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
@@ -13356,11 +13101,11 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19439316.039999999</v>
+        <v>19422574.039999999</v>
       </c>
       <c r="G27" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>77659039.159999996</v>
+        <v>77675781.159999996</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -13378,11 +13123,11 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22724086.52</v>
+        <v>22707233.52</v>
       </c>
       <c r="G28" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>90800771.079999998</v>
+        <v>90817624.079999998</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -13400,11 +13145,11 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26000064.200000003</v>
+        <v>25992401.200000003</v>
       </c>
       <c r="G29" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>103936511.8</v>
+        <v>103944174.8</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
@@ -13422,11 +13167,11 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29246482.680000003</v>
+        <v>29252786.680000003</v>
       </c>
       <c r="G30" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>116968755.72</v>
+        <v>116962451.72</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -13444,11 +13189,11 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5641540.1600000001</v>
+        <v>5640455.1600000001</v>
       </c>
       <c r="G31" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>22465800.640000001</v>
+        <v>22466885.640000001</v>
       </c>
     </row>
     <row r="32" spans="2:7">
@@ -13466,11 +13211,11 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8911174.6400000006</v>
+        <v>8922019.6400000006</v>
       </c>
       <c r="G32" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>35622668.560000002</v>
+        <v>35611823.560000002</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
@@ -13488,11 +13233,11 @@
       </c>
       <c r="F33" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12212410.119999997</v>
+        <v>12204426.119999997</v>
       </c>
       <c r="G33" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>48747935.479999989</v>
+        <v>48755919.479999989</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -13510,11 +13255,11 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>15502048.600000001</v>
+        <v>15480838.600000001</v>
       </c>
       <c r="G34" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>61884799.399999999</v>
+        <v>61906009.399999999</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -13532,11 +13277,11 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18770482.079999998</v>
+        <v>18785229.079999998</v>
       </c>
       <c r="G35" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75042868.319999993</v>
+        <v>75028121.319999993</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1">
@@ -13554,11 +13299,11 @@
       </c>
       <c r="F36" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22069801.560000002</v>
+        <v>22049480.560000002</v>
       </c>
       <c r="G36" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>88170051.239999995</v>
+        <v>88190372.239999995</v>
       </c>
     </row>
     <row r="37" spans="2:7">
@@ -13576,11 +13321,11 @@
       </c>
       <c r="F37" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>25333288.040000003</v>
+        <v>25338565.040000003</v>
       </c>
       <c r="G37" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>101333067.16</v>
+        <v>101327790.16</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -13598,11 +13343,11 @@
       </c>
       <c r="F38" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>28629636.52</v>
+        <v>28640062.52</v>
       </c>
       <c r="G38" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>114463221.08</v>
+        <v>114452795.08</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="30" customHeight="1">
@@ -13620,11 +13365,11 @@
       </c>
       <c r="F39" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5298018.2</v>
+        <v>5308496.2</v>
       </c>
       <c r="G39" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>21150557.800000001</v>
+        <v>21140079.800000001</v>
       </c>
     </row>
     <row r="40" spans="2:7">
@@ -13642,11 +13387,11 @@
       </c>
       <c r="F40" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8561899.6799999997</v>
+        <v>8548244.6799999997</v>
       </c>
       <c r="G40" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>34165338.719999999</v>
+        <v>34178993.719999999</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -13664,11 +13409,11 @@
       </c>
       <c r="F41" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>11549296.16</v>
+        <v>11536758.16</v>
       </c>
       <c r="G41" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>46126044.640000001</v>
+        <v>46138582.640000001</v>
       </c>
     </row>
     <row r="42" spans="2:7">
@@ -13686,11 +13431,11 @@
       </c>
       <c r="F42" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>14832491.640000001</v>
+        <v>14837897.640000001</v>
       </c>
       <c r="G42" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>59269351.560000002</v>
+        <v>59263945.560000002</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Bank_Data/DEC 2024.xlsx
+++ b/Sample_Bank_Data/DEC 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{6C7F03E5-FED8-4AB7-9A2E-B0052D616C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12B0D707-34B9-4D85-A064-33D7D1E08782}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{6C7F03E5-FED8-4AB7-9A2E-B0052D616C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67AB3324-9AF0-44B8-905F-B5B44E4C390E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="305">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -769,9 +769,6 @@
     <t>Collateral Grade</t>
   </si>
   <si>
-    <t>Collatral Land &amp; Building</t>
-  </si>
-  <si>
     <t>50%</t>
   </si>
   <si>
@@ -793,9 +790,6 @@
     <t>Building2</t>
   </si>
   <si>
-    <t>Collatral Cash, Gold &amp; Other Riskfree Assests</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -812,9 +806,6 @@
   </si>
   <si>
     <t>Building4</t>
-  </si>
-  <si>
-    <t>Collatral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>75%</t>
@@ -1732,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1784,7 +1775,7 @@
         <v>6342461.5</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -1793,10 +1784,10 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I2" t="s">
         <v>240</v>
-      </c>
-      <c r="I2" t="s">
-        <v>241</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -1816,7 +1807,7 @@
         <v>6342461.5</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -1825,10 +1816,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1857,10 +1848,10 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I4" t="s">
         <v>243</v>
-      </c>
-      <c r="I4" t="s">
-        <v>244</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -1880,7 +1871,7 @@
         <v>12465727.5</v>
       </c>
       <c r="E5" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -1889,10 +1880,10 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1912,7 +1903,7 @@
         <v>12465727.5</v>
       </c>
       <c r="E6" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -1921,10 +1912,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1944,7 +1935,7 @@
         <v>49384306</v>
       </c>
       <c r="E7" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -1953,10 +1944,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -1976,7 +1967,7 @@
         <v>49384306</v>
       </c>
       <c r="E8" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -1985,10 +1976,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>246</v>
+      </c>
+      <c r="I8" t="s">
         <v>248</v>
-      </c>
-      <c r="I8" t="s">
-        <v>250</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -2017,10 +2008,10 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -2040,7 +2031,7 @@
         <v>49393878</v>
       </c>
       <c r="E10" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -2049,10 +2040,10 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -2072,7 +2063,7 @@
         <v>49393878</v>
       </c>
       <c r="E11" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -2081,10 +2072,10 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2104,7 +2095,7 @@
         <v>11734697.5</v>
       </c>
       <c r="E12" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -2113,10 +2104,10 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -2136,7 +2127,7 @@
         <v>11734697.5</v>
       </c>
       <c r="E13" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -2145,10 +2136,10 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2168,7 +2159,7 @@
         <v>38281488.5</v>
       </c>
       <c r="E14" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -2177,10 +2168,10 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
+        <v>252</v>
+      </c>
+      <c r="I14" t="s">
         <v>255</v>
-      </c>
-      <c r="I14" t="s">
-        <v>258</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -2200,7 +2191,7 @@
         <v>38281488.5</v>
       </c>
       <c r="E15" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -2209,10 +2200,10 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2241,10 +2232,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2264,7 +2255,7 @@
         <v>28399986</v>
       </c>
       <c r="E17" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -2273,10 +2264,10 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -2296,7 +2287,7 @@
         <v>28399986</v>
       </c>
       <c r="E18" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -2305,10 +2296,10 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I18" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -2328,7 +2319,7 @@
         <v>43833099</v>
       </c>
       <c r="E19" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -2337,10 +2328,10 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I19" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -2360,7 +2351,7 @@
         <v>43833099</v>
       </c>
       <c r="E20" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -2369,10 +2360,10 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -2392,7 +2383,7 @@
         <v>27157906.5</v>
       </c>
       <c r="E21" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -2401,10 +2392,10 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -2424,7 +2415,7 @@
         <v>27157906.5</v>
       </c>
       <c r="E22" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -2433,10 +2424,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I22" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -2456,7 +2447,7 @@
         <v>11733148.5</v>
       </c>
       <c r="E23" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -2465,10 +2456,10 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -2488,7 +2479,7 @@
         <v>11733148.5</v>
       </c>
       <c r="E24" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -2497,10 +2488,10 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I24" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -2520,7 +2511,7 @@
         <v>33948976.5</v>
       </c>
       <c r="E25" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -2529,10 +2520,10 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I25" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -2552,7 +2543,7 @@
         <v>33948976.5</v>
       </c>
       <c r="E26" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -2561,10 +2552,10 @@
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I26" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -2584,7 +2575,7 @@
         <v>16058483.5</v>
       </c>
       <c r="E27" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -2593,10 +2584,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
+        <v>239</v>
+      </c>
+      <c r="I27" t="s">
         <v>240</v>
-      </c>
-      <c r="I27" t="s">
-        <v>241</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -2616,7 +2607,7 @@
         <v>16058483.5</v>
       </c>
       <c r="E28" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -2625,10 +2616,10 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -2648,7 +2639,7 @@
         <v>38275427.5</v>
       </c>
       <c r="E29" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -2657,10 +2648,10 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I29" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -2680,7 +2671,7 @@
         <v>38275427.5</v>
       </c>
       <c r="E30" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -2689,10 +2680,10 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I30" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -2721,10 +2712,10 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I31" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -2744,7 +2735,7 @@
         <v>10551181.5</v>
       </c>
       <c r="E32" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -2753,10 +2744,10 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I32" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -2776,7 +2767,7 @@
         <v>10551181.5</v>
       </c>
       <c r="E33" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -2785,10 +2776,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I33" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -2808,7 +2799,7 @@
         <v>45075945.5</v>
       </c>
       <c r="E34" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -2817,10 +2808,10 @@
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I34" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -2840,7 +2831,7 @@
         <v>45075945.5</v>
       </c>
       <c r="E35" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -2849,10 +2840,10 @@
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I35" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -2881,10 +2872,10 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I36" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -2904,7 +2895,7 @@
         <v>49382967.5</v>
       </c>
       <c r="E37" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -2913,10 +2904,10 @@
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I37" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -2936,7 +2927,7 @@
         <v>49382967.5</v>
       </c>
       <c r="E38" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -2945,10 +2936,10 @@
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I38" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -2977,10 +2968,10 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I39" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -3000,7 +2991,7 @@
         <v>11733316.5</v>
       </c>
       <c r="E40" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -3009,10 +3000,10 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I40" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -3032,7 +3023,7 @@
         <v>11733316.5</v>
       </c>
       <c r="E41" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -3041,10 +3032,10 @@
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I41" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -3064,7 +3055,7 @@
         <v>32716615</v>
       </c>
       <c r="E42" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -3073,10 +3064,10 @@
         <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I42" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -3096,7 +3087,7 @@
         <v>32716615</v>
       </c>
       <c r="E43" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -3105,10 +3096,10 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I43" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -3137,10 +3128,10 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I44" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -3160,7 +3151,7 @@
         <v>39449391</v>
       </c>
       <c r="E45" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -3169,10 +3160,10 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I45" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -3192,7 +3183,7 @@
         <v>39449391</v>
       </c>
       <c r="E46" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -3201,10 +3192,10 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I46" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -3233,10 +3224,10 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I47" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -3256,7 +3247,7 @@
         <v>22844186</v>
       </c>
       <c r="E48" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -3265,10 +3256,10 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I48" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -3288,7 +3279,7 @@
         <v>22844186</v>
       </c>
       <c r="E49" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -3297,10 +3288,10 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -3329,10 +3320,10 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I50" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -3352,7 +3343,7 @@
         <v>6179161.5</v>
       </c>
       <c r="E51" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -3361,10 +3352,10 @@
         <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I51" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -3384,7 +3375,7 @@
         <v>6179161.5</v>
       </c>
       <c r="E52" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -3393,10 +3384,10 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
+        <v>252</v>
+      </c>
+      <c r="I52" t="s">
         <v>255</v>
-      </c>
-      <c r="I52" t="s">
-        <v>258</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -3425,10 +3416,10 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
+        <v>242</v>
+      </c>
+      <c r="I53" t="s">
         <v>243</v>
-      </c>
-      <c r="I53" t="s">
-        <v>244</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -3448,7 +3439,7 @@
         <v>6183405.5</v>
       </c>
       <c r="E54" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -3457,10 +3448,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -3480,7 +3471,7 @@
         <v>6183405.5</v>
       </c>
       <c r="E55" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -3489,10 +3480,10 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I55" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -3521,10 +3512,10 @@
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I56" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -3544,7 +3535,7 @@
         <v>17291163.5</v>
       </c>
       <c r="E57" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -3553,10 +3544,10 @@
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I57" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -3576,7 +3567,7 @@
         <v>17291163.5</v>
       </c>
       <c r="E58" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
@@ -3585,10 +3576,10 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
+        <v>252</v>
+      </c>
+      <c r="I58" t="s">
         <v>255</v>
-      </c>
-      <c r="I58" t="s">
-        <v>258</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -3617,10 +3608,10 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I59" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -3640,7 +3631,7 @@
         <v>38278837.5</v>
       </c>
       <c r="E60" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -3649,10 +3640,10 @@
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I60" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -3672,7 +3663,7 @@
         <v>38278837.5</v>
       </c>
       <c r="E61" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
@@ -3681,10 +3672,10 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
+        <v>239</v>
+      </c>
+      <c r="I61" t="s">
         <v>240</v>
-      </c>
-      <c r="I61" t="s">
-        <v>241</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3713,10 +3704,10 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I62" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -3736,7 +3727,7 @@
         <v>6179517</v>
       </c>
       <c r="E63" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -3745,10 +3736,10 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I63" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -3768,7 +3759,7 @@
         <v>6179517</v>
       </c>
       <c r="E64" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -3777,10 +3768,10 @@
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I64" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -3809,10 +3800,10 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I65" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -3832,7 +3823,7 @@
         <v>32716094</v>
       </c>
       <c r="E66" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -3841,10 +3832,10 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I66" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -3864,7 +3855,7 @@
         <v>32716094</v>
       </c>
       <c r="E67" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -3873,10 +3864,10 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I67" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -3905,10 +3896,10 @@
         <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I68" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -3928,7 +3919,7 @@
         <v>28401244.5</v>
       </c>
       <c r="E69" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -3937,10 +3928,10 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I69" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -3960,7 +3951,7 @@
         <v>28401244.5</v>
       </c>
       <c r="E70" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -3969,10 +3960,10 @@
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I70" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -3992,7 +3983,7 @@
         <v>39460091.5</v>
       </c>
       <c r="E71" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -4001,10 +3992,10 @@
         <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I71" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -4024,7 +4015,7 @@
         <v>39460091.5</v>
       </c>
       <c r="E72" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
@@ -4033,10 +4024,10 @@
         <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I72" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -4065,10 +4056,10 @@
         <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I73" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -4097,10 +4088,10 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I74" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -4129,10 +4120,10 @@
         <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I75" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -4152,7 +4143,7 @@
         <v>38273142</v>
       </c>
       <c r="E76" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -4161,10 +4152,10 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -4184,7 +4175,7 @@
         <v>38273142</v>
       </c>
       <c r="E77" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
@@ -4193,10 +4184,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I77" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -4216,7 +4207,7 @@
         <v>43834257.5</v>
       </c>
       <c r="E78" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -4225,10 +4216,10 @@
         <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I78" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -4248,7 +4239,7 @@
         <v>43834257.5</v>
       </c>
       <c r="E79" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -4257,10 +4248,10 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I79" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -4289,10 +4280,10 @@
         <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I80" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -4312,7 +4303,7 @@
         <v>22838112.5</v>
       </c>
       <c r="E81" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
@@ -4321,10 +4312,10 @@
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I81" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -4344,7 +4335,7 @@
         <v>22838112.5</v>
       </c>
       <c r="E82" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -4353,10 +4344,10 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I82" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -4376,7 +4367,7 @@
         <v>11740999</v>
       </c>
       <c r="E83" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -4385,10 +4376,10 @@
         <v>21</v>
       </c>
       <c r="H83" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I83" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -4408,7 +4399,7 @@
         <v>11740999</v>
       </c>
       <c r="E84" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
@@ -4417,10 +4408,10 @@
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I84" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -4449,10 +4440,10 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I85" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -4481,10 +4472,10 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I86" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -4504,7 +4495,7 @@
         <v>28395129</v>
       </c>
       <c r="E87" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -4513,10 +4504,10 @@
         <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I87" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -4536,7 +4527,7 @@
         <v>28395129</v>
       </c>
       <c r="E88" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -4545,10 +4536,10 @@
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I88" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -4568,7 +4559,7 @@
         <v>33946895.5</v>
       </c>
       <c r="E89" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
@@ -4577,10 +4568,10 @@
         <v>21</v>
       </c>
       <c r="H89" t="s">
+        <v>252</v>
+      </c>
+      <c r="I89" t="s">
         <v>255</v>
-      </c>
-      <c r="I89" t="s">
-        <v>258</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -4600,7 +4591,7 @@
         <v>33946895.5</v>
       </c>
       <c r="E90" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -4609,10 +4600,10 @@
         <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I90" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -4641,10 +4632,10 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I91" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -4664,7 +4655,7 @@
         <v>5494343</v>
       </c>
       <c r="E92" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -4673,10 +4664,10 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I92" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -4696,7 +4687,7 @@
         <v>5494343</v>
       </c>
       <c r="E93" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -4705,10 +4696,10 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I93" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -4728,7 +4719,7 @@
         <v>5493032.5</v>
       </c>
       <c r="E94" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -4737,10 +4728,10 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I94" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -4760,7 +4751,7 @@
         <v>5493032.5</v>
       </c>
       <c r="E95" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -4769,10 +4760,10 @@
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I95" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -4801,10 +4792,10 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I96" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -4824,7 +4815,7 @@
         <v>43825146</v>
       </c>
       <c r="E97" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -4833,10 +4824,10 @@
         <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I97" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -4856,7 +4847,7 @@
         <v>43825146</v>
       </c>
       <c r="E98" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -4865,10 +4856,10 @@
         <v>21</v>
       </c>
       <c r="H98" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I98" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -4897,10 +4888,10 @@
         <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I99" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -4920,7 +4911,7 @@
         <v>11735181.5</v>
       </c>
       <c r="E100" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -4929,10 +4920,10 @@
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I100" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -4952,7 +4943,7 @@
         <v>11735181.5</v>
       </c>
       <c r="E101" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -4961,10 +4952,10 @@
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I101" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -4993,10 +4984,10 @@
         <v>24</v>
       </c>
       <c r="H102" t="s">
+        <v>242</v>
+      </c>
+      <c r="I102" t="s">
         <v>243</v>
-      </c>
-      <c r="I102" t="s">
-        <v>244</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -5016,7 +5007,7 @@
         <v>49386702.5</v>
       </c>
       <c r="E103" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -5025,10 +5016,10 @@
         <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I103" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -5048,7 +5039,7 @@
         <v>49386702.5</v>
       </c>
       <c r="E104" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -5057,10 +5048,10 @@
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I104" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -5080,7 +5071,7 @@
         <v>11734830.5</v>
       </c>
       <c r="E105" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
@@ -5089,10 +5080,10 @@
         <v>21</v>
       </c>
       <c r="H105" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I105" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -5112,7 +5103,7 @@
         <v>11734830.5</v>
       </c>
       <c r="E106" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -5121,10 +5112,10 @@
         <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I106" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -5153,10 +5144,10 @@
         <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I107" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -5176,7 +5167,7 @@
         <v>6178759</v>
       </c>
       <c r="E108" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -5185,10 +5176,10 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I108" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -5208,7 +5199,7 @@
         <v>6178759</v>
       </c>
       <c r="E109" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -5217,10 +5208,10 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I109" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -5240,7 +5231,7 @@
         <v>17285179</v>
       </c>
       <c r="E110" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -5249,10 +5240,10 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I110" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -5272,7 +5263,7 @@
         <v>17285179</v>
       </c>
       <c r="E111" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -5281,10 +5272,10 @@
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I111" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -5304,7 +5295,7 @@
         <v>32722553.5</v>
       </c>
       <c r="E112" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
@@ -5313,10 +5304,10 @@
         <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I112" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -5336,7 +5327,7 @@
         <v>32722553.5</v>
       </c>
       <c r="E113" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -5345,10 +5336,10 @@
         <v>21</v>
       </c>
       <c r="H113" t="s">
+        <v>252</v>
+      </c>
+      <c r="I113" t="s">
         <v>255</v>
-      </c>
-      <c r="I113" t="s">
-        <v>258</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -5377,10 +5368,10 @@
         <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I114" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -5400,7 +5391,7 @@
         <v>38271930</v>
       </c>
       <c r="E115" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -5409,10 +5400,10 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I115" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -5432,7 +5423,7 @@
         <v>38271930</v>
       </c>
       <c r="E116" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -5441,10 +5432,10 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I116" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -5464,7 +5455,7 @@
         <v>49390797.5</v>
       </c>
       <c r="E117" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
@@ -5473,10 +5464,10 @@
         <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I117" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -5496,7 +5487,7 @@
         <v>49390797.5</v>
       </c>
       <c r="E118" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
@@ -5505,10 +5496,10 @@
         <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I118" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -5528,7 +5519,7 @@
         <v>22842710.5</v>
       </c>
       <c r="E119" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
@@ -5537,10 +5528,10 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I119" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -5560,7 +5551,7 @@
         <v>22842710.5</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -5569,10 +5560,10 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
+        <v>239</v>
+      </c>
+      <c r="I120" t="s">
         <v>240</v>
-      </c>
-      <c r="I120" t="s">
-        <v>241</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -5592,7 +5583,7 @@
         <v>22840013.5</v>
       </c>
       <c r="E121" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
@@ -5601,10 +5592,10 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I121" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -5624,7 +5615,7 @@
         <v>22840013.5</v>
       </c>
       <c r="E122" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -5633,10 +5624,10 @@
         <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I122" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -5656,7 +5647,7 @@
         <v>11728983</v>
       </c>
       <c r="E123" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -5665,10 +5656,10 @@
         <v>22</v>
       </c>
       <c r="H123" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I123" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -5688,7 +5679,7 @@
         <v>11728983</v>
       </c>
       <c r="E124" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
@@ -5697,10 +5688,10 @@
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I124" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -5720,7 +5711,7 @@
         <v>32714600</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -5729,10 +5720,10 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I125" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -5752,7 +5743,7 @@
         <v>32714600</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -5761,10 +5752,10 @@
         <v>8</v>
       </c>
       <c r="H126" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I126" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -5793,10 +5784,10 @@
         <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I127" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -5816,7 +5807,7 @@
         <v>28396436</v>
       </c>
       <c r="E128" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -5825,10 +5816,10 @@
         <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I128" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -5848,7 +5839,7 @@
         <v>28396436</v>
       </c>
       <c r="E129" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -5857,10 +5848,10 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I129" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -5880,7 +5871,7 @@
         <v>17285016</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
@@ -5889,10 +5880,10 @@
         <v>15</v>
       </c>
       <c r="H130" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I130" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -5912,7 +5903,7 @@
         <v>17285016</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -5921,10 +5912,10 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I131" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -5944,7 +5935,7 @@
         <v>27164081</v>
       </c>
       <c r="E132" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -5953,10 +5944,10 @@
         <v>22</v>
       </c>
       <c r="H132" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I132" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -5976,7 +5967,7 @@
         <v>27164081</v>
       </c>
       <c r="E133" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
@@ -5985,10 +5976,10 @@
         <v>21</v>
       </c>
       <c r="H133" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I133" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -6017,10 +6008,10 @@
         <v>24</v>
       </c>
       <c r="H134" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I134" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -6040,7 +6031,7 @@
         <v>33948790</v>
       </c>
       <c r="E135" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
@@ -6049,10 +6040,10 @@
         <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I135" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -6072,7 +6063,7 @@
         <v>33948790</v>
       </c>
       <c r="E136" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
@@ -6081,10 +6072,10 @@
         <v>17</v>
       </c>
       <c r="H136" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I136" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -6113,10 +6104,10 @@
         <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I137" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -6136,7 +6127,7 @@
         <v>21609433.5</v>
       </c>
       <c r="E138" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -6145,10 +6136,10 @@
         <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I138" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -6168,7 +6159,7 @@
         <v>21609433.5</v>
       </c>
       <c r="E139" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -6177,10 +6168,10 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I139" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -6200,7 +6191,7 @@
         <v>32716320.5</v>
       </c>
       <c r="E140" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
@@ -6209,10 +6200,10 @@
         <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I140" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -6232,7 +6223,7 @@
         <v>32716320.5</v>
       </c>
       <c r="E141" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
@@ -6241,10 +6232,10 @@
         <v>22</v>
       </c>
       <c r="H141" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I141" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -6264,7 +6255,7 @@
         <v>39455140</v>
       </c>
       <c r="E142" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
@@ -6273,10 +6264,10 @@
         <v>21</v>
       </c>
       <c r="H142" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I142" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -6296,7 +6287,7 @@
         <v>39455140</v>
       </c>
       <c r="E143" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
@@ -6305,10 +6296,10 @@
         <v>22</v>
       </c>
       <c r="H143" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I143" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -6337,10 +6328,10 @@
         <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I144" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -6360,7 +6351,7 @@
         <v>16060058.5</v>
       </c>
       <c r="E145" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
@@ -6369,10 +6360,10 @@
         <v>8</v>
       </c>
       <c r="H145" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I145" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -6392,7 +6383,7 @@
         <v>16060058.5</v>
       </c>
       <c r="E146" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -6401,10 +6392,10 @@
         <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I146" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -6424,7 +6415,7 @@
         <v>27161345.5</v>
       </c>
       <c r="E147" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -6433,10 +6424,10 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
+        <v>246</v>
+      </c>
+      <c r="I147" t="s">
         <v>248</v>
-      </c>
-      <c r="I147" t="s">
-        <v>250</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -6456,7 +6447,7 @@
         <v>27161345.5</v>
       </c>
       <c r="E148" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
@@ -6465,10 +6456,10 @@
         <v>17</v>
       </c>
       <c r="H148" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I148" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -12573,11 +12564,11 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5403349.120000001</v>
+        <v>5396746.120000001</v>
       </c>
       <c r="G3" s="27">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21553796.48</v>
+        <v>21560399.48</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -12595,11 +12586,11 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8093182.6000000006</v>
+        <v>8089371.6000000006</v>
       </c>
       <c r="G4" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>32333665.399999999</v>
+        <v>32337476.399999999</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -12617,11 +12608,11 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>10793172.08</v>
+        <v>10800198.08</v>
       </c>
       <c r="G5" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>43103378.32</v>
+        <v>43096352.32</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1">
@@ -12639,11 +12630,11 @@
       </c>
       <c r="F6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13494076.560000001</v>
+        <v>13488983.560000001</v>
       </c>
       <c r="G6" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>53872176.239999995</v>
+        <v>53877269.239999995</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1">
@@ -12661,11 +12652,11 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16184621.039999999</v>
+        <v>16181647.039999999</v>
       </c>
       <c r="G7" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64651334.159999989</v>
+        <v>64654308.159999989</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -12683,11 +12674,11 @@
       </c>
       <c r="F8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18877492.520000003</v>
+        <v>18879640.520000003</v>
       </c>
       <c r="G8" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75428165.080000013</v>
+        <v>75426017.080000013</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1">
@@ -12705,11 +12696,11 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>21557432.200000003</v>
+        <v>21574252.200000003</v>
       </c>
       <c r="G9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>86203143.799999997</v>
+        <v>86186323.799999997</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -12727,11 +12718,11 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>24226234.680000003</v>
+        <v>24225986.680000003</v>
       </c>
       <c r="G10" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>96856203.719999999</v>
+        <v>96856451.719999999</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1">
@@ -12749,11 +12740,11 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26637641.16</v>
+        <v>26620903.16</v>
       </c>
       <c r="G11" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>106436099.64</v>
+        <v>106452837.64</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -12771,11 +12762,11 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29321094.640000001</v>
+        <v>29315022.640000001</v>
       </c>
       <c r="G12" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117222348.55999999</v>
+        <v>117228420.55999999</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -12793,11 +12784,11 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3345870.12</v>
+        <v>3345104.12</v>
       </c>
       <c r="G13" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>13262475.48</v>
+        <v>13263241.48</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -12815,11 +12806,11 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6608641.6000000006</v>
+        <v>6621221.6000000006</v>
       </c>
       <c r="G14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>26426206.399999999</v>
+        <v>26413626.399999999</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" customHeight="1">
@@ -12837,11 +12828,11 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9901867.0800000001</v>
+        <v>9914369.0800000001</v>
       </c>
       <c r="G15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>39559483.32</v>
+        <v>39546981.32</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -12859,11 +12850,11 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13183885.560000001</v>
+        <v>13197466.560000001</v>
       </c>
       <c r="G16" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>52703967.239999995</v>
+        <v>52690386.239999995</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -12881,11 +12872,11 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16478198.039999999</v>
+        <v>16476076.039999999</v>
       </c>
       <c r="G17" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>65836157.159999989</v>
+        <v>65838279.159999989</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -12903,11 +12894,11 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19761056.520000003</v>
+        <v>19769861.520000003</v>
       </c>
       <c r="G18" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>78979801.080000013</v>
+        <v>78970996.080000013</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
@@ -12925,11 +12916,11 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>23031027.200000003</v>
+        <v>23046445.200000003</v>
       </c>
       <c r="G19" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>92121548.799999997</v>
+        <v>92106130.799999997</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -12947,11 +12938,11 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26288848.680000003</v>
+        <v>26296690.680000003</v>
       </c>
       <c r="G20" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>105142389.72</v>
+        <v>105134547.72</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1">
@@ -12969,11 +12960,11 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29287394.160000004</v>
+        <v>29285061.160000004</v>
       </c>
       <c r="G21" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117091946.64000002</v>
+        <v>117094279.64000002</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -12991,11 +12982,11 @@
       </c>
       <c r="F22" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3015948.64</v>
+        <v>3012794.64</v>
       </c>
       <c r="G22" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>11949894.559999999</v>
+        <v>11953048.559999999</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -13013,11 +13004,11 @@
       </c>
       <c r="F23" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6292302.120000001</v>
+        <v>6279164.120000001</v>
       </c>
       <c r="G23" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>25100043.48</v>
+        <v>25113181.48</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -13035,11 +13026,11 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9580071.5999999996</v>
+        <v>9579409.5999999996</v>
       </c>
       <c r="G24" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>38238776.399999999</v>
+        <v>38239438.399999999</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1">
@@ -13057,11 +13048,11 @@
       </c>
       <c r="F25" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12870075.08</v>
+        <v>12854005.08</v>
       </c>
       <c r="G25" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>51375275.32</v>
+        <v>51391345.32</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -13079,11 +13070,11 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16144009.560000001</v>
+        <v>16138531.560000001</v>
       </c>
       <c r="G26" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64527843.239999995</v>
+        <v>64533321.239999995</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
@@ -13101,11 +13092,11 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19422574.039999999</v>
+        <v>19428515.039999999</v>
       </c>
       <c r="G27" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>77675781.159999996</v>
+        <v>77669840.159999996</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -13123,11 +13114,11 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22707233.52</v>
+        <v>22705403.52</v>
       </c>
       <c r="G28" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>90817624.079999998</v>
+        <v>90819454.079999998</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -13145,11 +13136,11 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>25992401.200000003</v>
+        <v>25993996.200000003</v>
       </c>
       <c r="G29" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>103944174.8</v>
+        <v>103942579.8</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
@@ -13167,11 +13158,11 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29252786.680000003</v>
+        <v>29257762.680000003</v>
       </c>
       <c r="G30" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>116962451.72</v>
+        <v>116957475.72</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -13189,11 +13180,11 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5640455.1600000001</v>
+        <v>5629606.1600000001</v>
       </c>
       <c r="G31" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>22466885.640000001</v>
+        <v>22477734.640000001</v>
       </c>
     </row>
     <row r="32" spans="2:7">
@@ -13211,11 +13202,11 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8922019.6400000006</v>
+        <v>8912416.6400000006</v>
       </c>
       <c r="G32" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>35611823.560000002</v>
+        <v>35621426.560000002</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
@@ -13233,11 +13224,11 @@
       </c>
       <c r="F33" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12204426.119999997</v>
+        <v>12209166.119999997</v>
       </c>
       <c r="G33" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>48755919.479999989</v>
+        <v>48751179.479999989</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -13255,11 +13246,11 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>15480838.600000001</v>
+        <v>15477509.600000001</v>
       </c>
       <c r="G34" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>61906009.399999999</v>
+        <v>61909338.399999999</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -13277,11 +13268,11 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18785229.079999998</v>
+        <v>18773925.079999998</v>
       </c>
       <c r="G35" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75028121.319999993</v>
+        <v>75039425.319999993</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1">
@@ -13299,11 +13290,11 @@
       </c>
       <c r="F36" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22049480.560000002</v>
+        <v>22050616.560000002</v>
       </c>
       <c r="G36" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>88190372.239999995</v>
+        <v>88189236.239999995</v>
       </c>
     </row>
     <row r="37" spans="2:7">
@@ -13321,11 +13312,11 @@
       </c>
       <c r="F37" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>25338565.040000003</v>
+        <v>25355660.040000003</v>
       </c>
       <c r="G37" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>101327790.16</v>
+        <v>101310695.16</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -13343,11 +13334,11 @@
       </c>
       <c r="F38" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>28640062.52</v>
+        <v>28642141.52</v>
       </c>
       <c r="G38" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>114452795.08</v>
+        <v>114450716.08</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="30" customHeight="1">
@@ -13365,11 +13356,11 @@
       </c>
       <c r="F39" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5308496.2</v>
+        <v>5308733.2</v>
       </c>
       <c r="G39" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>21140079.800000001</v>
+        <v>21139842.800000001</v>
       </c>
     </row>
     <row r="40" spans="2:7">
@@ -13387,11 +13378,11 @@
       </c>
       <c r="F40" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8548244.6799999997</v>
+        <v>8545716.6799999997</v>
       </c>
       <c r="G40" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>34178993.719999999</v>
+        <v>34181521.719999999</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -13409,11 +13400,11 @@
       </c>
       <c r="F41" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>11536758.16</v>
+        <v>11537330.16</v>
       </c>
       <c r="G41" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>46138582.640000001</v>
+        <v>46138010.640000001</v>
       </c>
     </row>
     <row r="42" spans="2:7">
@@ -13431,11 +13422,11 @@
       </c>
       <c r="F42" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>14837897.640000001</v>
+        <v>14820912.640000001</v>
       </c>
       <c r="G42" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>59263945.560000002</v>
+        <v>59280930.560000002</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Bank_Data/DEC 2024.xlsx
+++ b/Sample_Bank_Data/DEC 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{6C7F03E5-FED8-4AB7-9A2E-B0052D616C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67AB3324-9AF0-44B8-905F-B5B44E4C390E}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{6C7F03E5-FED8-4AB7-9A2E-B0052D616C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E51C666-D944-41C5-A3F9-85AF16AB6A89}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="11" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="305">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -1723,7 +1723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+    <sheetView topLeftCell="A74" workbookViewId="0">
       <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
@@ -7369,8 +7369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12513,10 +12513,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:G42"/>
+  <dimension ref="A2:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12529,7 +12529,10 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="23" t="s">
         <v>118</v>
       </c>
@@ -12549,7 +12552,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="41.25" customHeight="1">
+    <row r="3" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="26" t="s">
         <v>124</v>
       </c>
@@ -12564,14 +12570,17 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5396746.120000001</v>
+        <v>5413679.120000001</v>
       </c>
       <c r="G3" s="27">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21560399.48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>21543466.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="26" t="s">
         <v>126</v>
       </c>
@@ -12586,14 +12595,17 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8089371.6000000006</v>
+        <v>8086114.6000000006</v>
       </c>
       <c r="G4" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>32337476.399999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>32340733.399999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="26" t="s">
         <v>127</v>
       </c>
@@ -12608,14 +12620,17 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>10800198.08</v>
+        <v>10790123.08</v>
       </c>
       <c r="G5" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>43096352.32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1">
+        <v>43106427.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="26" t="s">
         <v>128</v>
       </c>
@@ -12630,14 +12645,17 @@
       </c>
       <c r="F6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13488983.560000001</v>
+        <v>13487822.560000001</v>
       </c>
       <c r="G6" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>53877269.239999995</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1">
+        <v>53878430.239999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="26" t="s">
         <v>129</v>
       </c>
@@ -12652,14 +12670,17 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16181647.039999999</v>
+        <v>16169522.039999999</v>
       </c>
       <c r="G7" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64654308.159999989</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>64666433.159999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="26" t="s">
         <v>130</v>
       </c>
@@ -12674,14 +12695,17 @@
       </c>
       <c r="F8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18879640.520000003</v>
+        <v>18863278.520000003</v>
       </c>
       <c r="G8" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75426017.080000013</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1">
+        <v>75442379.080000013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
       <c r="B9" s="26" t="s">
         <v>131</v>
       </c>
@@ -12696,14 +12720,17 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>21574252.200000003</v>
+        <v>21571892.200000003</v>
       </c>
       <c r="G9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>86186323.799999997</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>86188683.799999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
       <c r="B10" s="26" t="s">
         <v>132</v>
       </c>
@@ -12718,14 +12745,17 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>24225986.680000003</v>
+        <v>24221998.680000003</v>
       </c>
       <c r="G10" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>96856451.719999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1">
+        <v>96860439.719999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
       <c r="B11" s="26" t="s">
         <v>133</v>
       </c>
@@ -12740,14 +12770,17 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26620903.16</v>
+        <v>26630783.16</v>
       </c>
       <c r="G11" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>106452837.64</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+        <v>106442957.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
       <c r="B12" s="26" t="s">
         <v>134</v>
       </c>
@@ -12762,14 +12795,17 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29315022.640000001</v>
+        <v>29331218.640000001</v>
       </c>
       <c r="G12" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117228420.55999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>117212224.55999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
       <c r="B13" s="26" t="s">
         <v>135</v>
       </c>
@@ -12784,14 +12820,17 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3345104.12</v>
+        <v>3339975.12</v>
       </c>
       <c r="G13" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>13263241.48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>13268370.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
       <c r="B14" s="26" t="s">
         <v>136</v>
       </c>
@@ -12806,14 +12845,17 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6621221.6000000006</v>
+        <v>6619695.6000000006</v>
       </c>
       <c r="G14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>26413626.399999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1">
+        <v>26415152.399999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
       <c r="B15" s="26" t="s">
         <v>137</v>
       </c>
@@ -12828,14 +12870,17 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9914369.0800000001</v>
+        <v>9897622.0800000001</v>
       </c>
       <c r="G15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>39546981.32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
+        <v>39563728.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
       <c r="B16" s="26" t="s">
         <v>138</v>
       </c>
@@ -12850,14 +12895,17 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13197466.560000001</v>
+        <v>13193668.560000001</v>
       </c>
       <c r="G16" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>52690386.239999995</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>52694184.239999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
       <c r="B17" s="26" t="s">
         <v>139</v>
       </c>
@@ -12872,14 +12920,17 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16476076.039999999</v>
+        <v>16487183.039999999</v>
       </c>
       <c r="G17" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>65838279.159999989</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+        <v>65827172.159999989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
       <c r="B18" s="26" t="s">
         <v>140</v>
       </c>
@@ -12894,14 +12945,17 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19769861.520000003</v>
+        <v>19751199.520000003</v>
       </c>
       <c r="G18" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>78970996.080000013</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
+        <v>78989658.080000013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
       <c r="B19" s="26" t="s">
         <v>142</v>
       </c>
@@ -12916,14 +12970,17 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>23046445.200000003</v>
+        <v>23050029.200000003</v>
       </c>
       <c r="G19" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>92106130.799999997</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>92102546.799999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
       <c r="B20" s="26" t="s">
         <v>143</v>
       </c>
@@ -12938,14 +12995,17 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26296690.680000003</v>
+        <v>26290957.680000003</v>
       </c>
       <c r="G20" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>105134547.72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
+        <v>105140280.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
       <c r="B21" s="26" t="s">
         <v>144</v>
       </c>
@@ -12960,14 +13020,17 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29285061.160000004</v>
+        <v>29293113.160000004</v>
       </c>
       <c r="G21" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117094279.64000002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+        <v>117086227.64000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
       <c r="B22" s="26" t="s">
         <v>145</v>
       </c>
@@ -12982,14 +13045,17 @@
       </c>
       <c r="F22" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3012794.64</v>
+        <v>3007983.64</v>
       </c>
       <c r="G22" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>11953048.559999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>11957859.559999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
       <c r="B23" s="26" t="s">
         <v>146</v>
       </c>
@@ -13004,14 +13070,17 @@
       </c>
       <c r="F23" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6279164.120000001</v>
+        <v>6284975.120000001</v>
       </c>
       <c r="G23" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>25113181.48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
+        <v>25107370.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
       <c r="B24" s="26" t="s">
         <v>147</v>
       </c>
@@ -13026,14 +13095,17 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9579409.5999999996</v>
+        <v>9583710.5999999996</v>
       </c>
       <c r="G24" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>38239438.399999999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1">
+        <v>38235137.399999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
       <c r="B25" s="26" t="s">
         <v>148</v>
       </c>
@@ -13048,14 +13120,17 @@
       </c>
       <c r="F25" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12854005.08</v>
+        <v>12858074.08</v>
       </c>
       <c r="G25" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>51391345.32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>51387276.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
       <c r="B26" s="26" t="s">
         <v>149</v>
       </c>
@@ -13070,14 +13145,17 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16138531.560000001</v>
+        <v>16134927.560000001</v>
       </c>
       <c r="G26" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64533321.239999995</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+        <v>64536925.239999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
       <c r="B27" s="26" t="s">
         <v>150</v>
       </c>
@@ -13092,14 +13170,17 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19428515.039999999</v>
+        <v>19443981.039999999</v>
       </c>
       <c r="G27" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>77669840.159999996</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>77654374.159999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
       <c r="B28" s="26" t="s">
         <v>151</v>
       </c>
@@ -13114,14 +13195,17 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22705403.52</v>
+        <v>22709983.52</v>
       </c>
       <c r="G28" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>90819454.079999998</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>90814874.079999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
       <c r="B29" s="26" t="s">
         <v>152</v>
       </c>
@@ -13136,14 +13220,17 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>25993996.200000003</v>
+        <v>25987663.200000003</v>
       </c>
       <c r="G29" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>103942579.8</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+        <v>103948912.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
       <c r="B30" s="26" t="s">
         <v>153</v>
       </c>
@@ -13158,14 +13245,17 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29257762.680000003</v>
+        <v>29245559.680000003</v>
       </c>
       <c r="G30" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>116957475.72</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>116969678.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
       <c r="B31" s="26" t="s">
         <v>154</v>
       </c>
@@ -13180,14 +13270,17 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5629606.1600000001</v>
+        <v>5637710.1600000001</v>
       </c>
       <c r="G31" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>22477734.640000001</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>22469630.640000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
       <c r="B32" s="26" t="s">
         <v>155</v>
       </c>
@@ -13202,14 +13295,17 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8912416.6400000006</v>
+        <v>8924819.6400000006</v>
       </c>
       <c r="G32" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>35621426.560000002</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
+        <v>35609023.560000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
       <c r="B33" s="26" t="s">
         <v>156</v>
       </c>
@@ -13224,14 +13320,17 @@
       </c>
       <c r="F33" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12209166.119999997</v>
+        <v>12197059.119999997</v>
       </c>
       <c r="G33" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>48751179.479999989</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>48763286.479999989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
       <c r="B34" s="26" t="s">
         <v>157</v>
       </c>
@@ -13246,14 +13345,17 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>15477509.600000001</v>
+        <v>15483096.600000001</v>
       </c>
       <c r="G34" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>61909338.399999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>61903751.399999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
       <c r="B35" s="26" t="s">
         <v>158</v>
       </c>
@@ -13268,14 +13370,17 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18773925.079999998</v>
+        <v>18774532.079999998</v>
       </c>
       <c r="G35" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75039425.319999993</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1">
+        <v>75038818.319999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
       <c r="B36" s="26" t="s">
         <v>159</v>
       </c>
@@ -13290,14 +13395,17 @@
       </c>
       <c r="F36" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22050616.560000002</v>
+        <v>22057446.560000002</v>
       </c>
       <c r="G36" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>88189236.239999995</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+        <v>88182406.239999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
       <c r="B37" s="26" t="s">
         <v>160</v>
       </c>
@@ -13312,14 +13420,17 @@
       </c>
       <c r="F37" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>25355660.040000003</v>
+        <v>25341032.040000003</v>
       </c>
       <c r="G37" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>101310695.16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+        <v>101325323.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
       <c r="B38" s="26" t="s">
         <v>161</v>
       </c>
@@ -13334,14 +13445,17 @@
       </c>
       <c r="F38" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>28642141.52</v>
+        <v>28628814.52</v>
       </c>
       <c r="G38" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>114450716.08</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="30" customHeight="1">
+        <v>114464043.08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
       <c r="B39" s="26" t="s">
         <v>162</v>
       </c>
@@ -13356,14 +13470,17 @@
       </c>
       <c r="F39" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5308733.2</v>
+        <v>5293088.2</v>
       </c>
       <c r="G39" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>21139842.800000001</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
+        <v>21155487.800000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
       <c r="B40" s="26" t="s">
         <v>163</v>
       </c>
@@ -13378,14 +13495,17 @@
       </c>
       <c r="F40" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8545716.6799999997</v>
+        <v>8568451.6799999997</v>
       </c>
       <c r="G40" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>34181521.719999999</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
+        <v>34158786.719999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
       <c r="B41" s="26" t="s">
         <v>164</v>
       </c>
@@ -13400,14 +13520,17 @@
       </c>
       <c r="F41" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>11537330.16</v>
+        <v>11550001.16</v>
       </c>
       <c r="G41" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>46138010.640000001</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
+        <v>46125339.640000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
       <c r="B42" s="26" t="s">
         <v>165</v>
       </c>
@@ -13422,11 +13545,11 @@
       </c>
       <c r="F42" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>14820912.640000001</v>
+        <v>14825429.640000001</v>
       </c>
       <c r="G42" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>59280930.560000002</v>
+        <v>59276413.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -13436,10 +13559,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:F44"/>
+  <dimension ref="A2:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13451,7 +13574,10 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="29" t="s">
         <v>25</v>
       </c>
@@ -13468,7 +13594,10 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="29" t="s">
         <v>43</v>
       </c>
@@ -13486,7 +13615,10 @@
         <v>46281</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="29" t="s">
         <v>46</v>
       </c>
@@ -13504,7 +13636,10 @@
         <v>46282</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="29" t="s">
         <v>47</v>
       </c>
@@ -13522,7 +13657,10 @@
         <v>46283</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="29" t="s">
         <v>48</v>
       </c>
@@ -13540,7 +13678,10 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="29" t="s">
         <v>51</v>
       </c>
@@ -13558,7 +13699,10 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="29" t="s">
         <v>52</v>
       </c>
@@ -13621,9 +13765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection sqref="A1:A51"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/Sample_Bank_Data/DEC 2024.xlsx
+++ b/Sample_Bank_Data/DEC 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{6C7F03E5-FED8-4AB7-9A2E-B0052D616C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E51C666-D944-41C5-A3F9-85AF16AB6A89}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{6C7F03E5-FED8-4AB7-9A2E-B0052D616C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7877DB50-61E2-49BE-BDA2-2F0B240681E5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="11" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -376,13 +376,13 @@
     <t>Total Collateral</t>
   </si>
   <si>
-    <t>HC Collateral Building</t>
-  </si>
-  <si>
-    <t>HC Collateral Cash</t>
-  </si>
-  <si>
-    <t>HC Collateral Shares</t>
+    <t>HC Collateral Land &amp; Building</t>
+  </si>
+  <si>
+    <t>HC Collateral Cash, Gold &amp; Other Riskfree Assests</t>
+  </si>
+  <si>
+    <t>HC Collateral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>HC Collateral Hawalat Haq</t>
@@ -7369,8 +7369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12515,7 +12515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
@@ -12570,11 +12570,11 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5413679.120000001</v>
+        <v>5405876.120000001</v>
       </c>
       <c r="G3" s="27">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21543466.48</v>
+        <v>21551269.48</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -12595,11 +12595,11 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8086114.6000000006</v>
+        <v>8107864.6000000006</v>
       </c>
       <c r="G4" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>32340733.399999999</v>
+        <v>32318983.399999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -12620,11 +12620,11 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>10790123.08</v>
+        <v>10783763.08</v>
       </c>
       <c r="G5" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>43106427.32</v>
+        <v>43112787.32</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
@@ -12645,11 +12645,11 @@
       </c>
       <c r="F6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13487822.560000001</v>
+        <v>13496567.560000001</v>
       </c>
       <c r="G6" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>53878430.239999995</v>
+        <v>53869685.239999995</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
@@ -12670,11 +12670,11 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16169522.039999999</v>
+        <v>16189671.039999999</v>
       </c>
       <c r="G7" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64666433.159999989</v>
+        <v>64646284.159999989</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12695,11 +12695,11 @@
       </c>
       <c r="F8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18863278.520000003</v>
+        <v>18883136.520000003</v>
       </c>
       <c r="G8" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75442379.080000013</v>
+        <v>75422521.080000013</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
@@ -12720,11 +12720,11 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>21571892.200000003</v>
+        <v>21574886.200000003</v>
       </c>
       <c r="G9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>86188683.799999997</v>
+        <v>86185689.799999997</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -12745,11 +12745,11 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>24221998.680000003</v>
+        <v>24220614.680000003</v>
       </c>
       <c r="G10" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>96860439.719999999</v>
+        <v>96861823.719999999</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
@@ -12770,11 +12770,11 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26630783.16</v>
+        <v>26615725.16</v>
       </c>
       <c r="G11" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>106442957.64</v>
+        <v>106458015.64</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -12795,11 +12795,11 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29331218.640000001</v>
+        <v>29311548.640000001</v>
       </c>
       <c r="G12" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117212224.55999999</v>
+        <v>117231894.55999999</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -12820,11 +12820,11 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3339975.12</v>
+        <v>3336387.12</v>
       </c>
       <c r="G13" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>13268370.48</v>
+        <v>13271958.48</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -12845,11 +12845,11 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6619695.6000000006</v>
+        <v>6626799.6000000006</v>
       </c>
       <c r="G14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>26415152.399999999</v>
+        <v>26408048.399999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1">
@@ -12870,11 +12870,11 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9897622.0800000001</v>
+        <v>9897139.0800000001</v>
       </c>
       <c r="G15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>39563728.32</v>
+        <v>39564211.32</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -12895,11 +12895,11 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13193668.560000001</v>
+        <v>13180244.560000001</v>
       </c>
       <c r="G16" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>52694184.239999995</v>
+        <v>52707608.239999995</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -12920,11 +12920,11 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16487183.039999999</v>
+        <v>16478856.039999999</v>
       </c>
       <c r="G17" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>65827172.159999989</v>
+        <v>65835499.159999989</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -12945,11 +12945,11 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19751199.520000003</v>
+        <v>19757023.520000003</v>
       </c>
       <c r="G18" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>78989658.080000013</v>
+        <v>78983834.080000013</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1">
@@ -12970,11 +12970,11 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>23050029.200000003</v>
+        <v>23048873.200000003</v>
       </c>
       <c r="G19" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>92102546.799999997</v>
+        <v>92103702.799999997</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -12995,11 +12995,11 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26290957.680000003</v>
+        <v>26295900.680000003</v>
       </c>
       <c r="G20" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>105140280.72</v>
+        <v>105135337.72</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1">
@@ -13020,11 +13020,11 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29293113.160000004</v>
+        <v>29293148.160000004</v>
       </c>
       <c r="G21" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117086227.64000002</v>
+        <v>117086192.64000002</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -13045,11 +13045,11 @@
       </c>
       <c r="F22" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3007983.64</v>
+        <v>3008452.64</v>
       </c>
       <c r="G22" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>11957859.559999999</v>
+        <v>11957390.559999999</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -13070,11 +13070,11 @@
       </c>
       <c r="F23" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6284975.120000001</v>
+        <v>6278524.120000001</v>
       </c>
       <c r="G23" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>25107370.48</v>
+        <v>25113821.48</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -13095,11 +13095,11 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9583710.5999999996</v>
+        <v>9564473.5999999996</v>
       </c>
       <c r="G24" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>38235137.399999999</v>
+        <v>38254374.399999999</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1">
@@ -13120,11 +13120,11 @@
       </c>
       <c r="F25" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12858074.08</v>
+        <v>12865031.08</v>
       </c>
       <c r="G25" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>51387276.32</v>
+        <v>51380319.32</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -13145,11 +13145,11 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16134927.560000001</v>
+        <v>16139485.560000001</v>
       </c>
       <c r="G26" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64536925.239999995</v>
+        <v>64532367.239999995</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1">
@@ -13170,11 +13170,11 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19443981.039999999</v>
+        <v>19422770.039999999</v>
       </c>
       <c r="G27" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>77654374.159999996</v>
+        <v>77675585.159999996</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -13195,11 +13195,11 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22709983.52</v>
+        <v>22713210.52</v>
       </c>
       <c r="G28" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>90814874.079999998</v>
+        <v>90811647.079999998</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -13220,11 +13220,11 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>25987663.200000003</v>
+        <v>25998252.200000003</v>
       </c>
       <c r="G29" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>103948912.8</v>
+        <v>103938323.8</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1">
@@ -13245,11 +13245,11 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29245559.680000003</v>
+        <v>29263321.680000003</v>
       </c>
       <c r="G30" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>116969678.72</v>
+        <v>116951916.72</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -13270,11 +13270,11 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5637710.1600000001</v>
+        <v>5628133.1600000001</v>
       </c>
       <c r="G31" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>22469630.640000001</v>
+        <v>22479207.640000001</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -13295,11 +13295,11 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8924819.6400000006</v>
+        <v>8924578.6400000006</v>
       </c>
       <c r="G32" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>35609023.560000002</v>
+        <v>35609264.560000002</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1">
@@ -13320,11 +13320,11 @@
       </c>
       <c r="F33" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12197059.119999997</v>
+        <v>12211918.119999997</v>
       </c>
       <c r="G33" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>48763286.479999989</v>
+        <v>48748427.479999989</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -13345,11 +13345,11 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>15483096.600000001</v>
+        <v>15495942.600000001</v>
       </c>
       <c r="G34" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>61903751.399999999</v>
+        <v>61890905.399999999</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -13370,11 +13370,11 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18774532.079999998</v>
+        <v>18777410.079999998</v>
       </c>
       <c r="G35" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75038818.319999993</v>
+        <v>75035940.319999993</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1">
@@ -13395,11 +13395,11 @@
       </c>
       <c r="F36" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22057446.560000002</v>
+        <v>22070132.560000002</v>
       </c>
       <c r="G36" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>88182406.239999995</v>
+        <v>88169720.239999995</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -13420,11 +13420,11 @@
       </c>
       <c r="F37" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>25341032.040000003</v>
+        <v>25344178.040000003</v>
       </c>
       <c r="G37" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>101325323.16</v>
+        <v>101322177.16</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -13445,11 +13445,11 @@
       </c>
       <c r="F38" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>28628814.52</v>
+        <v>28629641.52</v>
       </c>
       <c r="G38" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>114464043.08</v>
+        <v>114463216.08</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1">
@@ -13470,11 +13470,11 @@
       </c>
       <c r="F39" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5293088.2</v>
+        <v>5306094.2</v>
       </c>
       <c r="G39" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>21155487.800000001</v>
+        <v>21142481.800000001</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -13495,11 +13495,11 @@
       </c>
       <c r="F40" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8568451.6799999997</v>
+        <v>8568269.6799999997</v>
       </c>
       <c r="G40" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>34158786.719999999</v>
+        <v>34158968.719999999</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -13520,11 +13520,11 @@
       </c>
       <c r="F41" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>11550001.16</v>
+        <v>11543363.16</v>
       </c>
       <c r="G41" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>46125339.640000001</v>
+        <v>46131977.640000001</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -13545,11 +13545,11 @@
       </c>
       <c r="F42" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>14825429.640000001</v>
+        <v>14839302.640000001</v>
       </c>
       <c r="G42" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>59276413.560000002</v>
+        <v>59262540.560000002</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Bank_Data/DEC 2024.xlsx
+++ b/Sample_Bank_Data/DEC 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6C7F03E5-FED8-4AB7-9A2E-B0052D616C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C47F5EA-2BB6-4630-880D-666DCB608B37}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{6C7F03E5-FED8-4AB7-9A2E-B0052D616C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7877DB50-61E2-49BE-BDA2-2F0B240681E5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="305">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -376,13 +376,13 @@
     <t>Total Collateral</t>
   </si>
   <si>
-    <t>HC Collateral Building</t>
-  </si>
-  <si>
-    <t>HC Collateral Cash</t>
-  </si>
-  <si>
-    <t>HC Collateral Shares</t>
+    <t>HC Collateral Land &amp; Building</t>
+  </si>
+  <si>
+    <t>HC Collateral Cash, Gold &amp; Other Riskfree Assests</t>
+  </si>
+  <si>
+    <t>HC Collateral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>HC Collateral Hawalat Haq</t>
@@ -769,9 +769,6 @@
     <t>Collateral Grade</t>
   </si>
   <si>
-    <t>Collatral Land &amp; Building</t>
-  </si>
-  <si>
     <t>50%</t>
   </si>
   <si>
@@ -793,9 +790,6 @@
     <t>Building2</t>
   </si>
   <si>
-    <t>Collatral Cash, Gold &amp; Other Riskfree Assests</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -814,9 +808,6 @@
     <t>Building4</t>
   </si>
   <si>
-    <t>Collatral Shares &amp; Other Paper Assests</t>
-  </si>
-  <si>
     <t>75%</t>
   </si>
   <si>
@@ -865,370 +856,115 @@
     <t>Shares6</t>
   </si>
   <si>
+    <t>Land6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest2</t>
+  </si>
+  <si>
+    <t>Gold4</t>
+  </si>
+  <si>
+    <t>Others4</t>
+  </si>
+  <si>
+    <t>Land7</t>
+  </si>
+  <si>
+    <t>Land8</t>
+  </si>
+  <si>
+    <t>Shares7</t>
+  </si>
+  <si>
+    <t>Shares9</t>
+  </si>
+  <si>
+    <t>Others5</t>
+  </si>
+  <si>
+    <t>Others6</t>
+  </si>
+  <si>
+    <t>Building7</t>
+  </si>
+  <si>
+    <t>Land9</t>
+  </si>
+  <si>
+    <t>Cash3</t>
+  </si>
+  <si>
+    <t>Risk Free Assest3</t>
+  </si>
+  <si>
+    <t>Others7</t>
+  </si>
+  <si>
+    <t>Cash4</t>
+  </si>
+  <si>
+    <t>Risk Free Assest4</t>
+  </si>
+  <si>
+    <t>Others8</t>
+  </si>
+  <si>
+    <t>Others9</t>
+  </si>
+  <si>
+    <t>Building8</t>
+  </si>
+  <si>
+    <t>Building9</t>
+  </si>
+  <si>
+    <t>Cash5</t>
+  </si>
+  <si>
+    <t>Gold5</t>
+  </si>
+  <si>
+    <t>Gold6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest5</t>
+  </si>
+  <si>
+    <t>Shares8</t>
+  </si>
+  <si>
+    <t>Cash6</t>
+  </si>
+  <si>
+    <t>Gold7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest8</t>
+  </si>
+  <si>
+    <t>Risk Free Assest9</t>
+  </si>
+  <si>
+    <t>Cash7</t>
+  </si>
+  <si>
+    <t>Shares10</t>
+  </si>
+  <si>
+    <t>Shares11</t>
+  </si>
+  <si>
+    <t>Shares12</t>
+  </si>
+  <si>
     <t>Building6</t>
-  </si>
-  <si>
-    <t>Land6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest2</t>
-  </si>
-  <si>
-    <t>Gold4</t>
-  </si>
-  <si>
-    <t>Others4</t>
-  </si>
-  <si>
-    <t>Land7</t>
-  </si>
-  <si>
-    <t>Land8</t>
-  </si>
-  <si>
-    <t>Shares7</t>
-  </si>
-  <si>
-    <t>Shares8</t>
-  </si>
-  <si>
-    <t>Others5</t>
-  </si>
-  <si>
-    <t>Shares9</t>
-  </si>
-  <si>
-    <t>Shares10</t>
-  </si>
-  <si>
-    <t>Others6</t>
-  </si>
-  <si>
-    <t>Building7</t>
-  </si>
-  <si>
-    <t>Land9</t>
-  </si>
-  <si>
-    <t>Cash3</t>
-  </si>
-  <si>
-    <t>Risk Free Assest3</t>
-  </si>
-  <si>
-    <t>Others7</t>
-  </si>
-  <si>
-    <t>Cash4</t>
-  </si>
-  <si>
-    <t>Risk Free Assest4</t>
-  </si>
-  <si>
-    <t>Others8</t>
-  </si>
-  <si>
-    <t>Land10</t>
-  </si>
-  <si>
-    <t>Land11</t>
-  </si>
-  <si>
-    <t>Others9</t>
-  </si>
-  <si>
-    <t>Shares11</t>
-  </si>
-  <si>
-    <t>Shares12</t>
-  </si>
-  <si>
-    <t>Others10</t>
-  </si>
-  <si>
-    <t>Land12</t>
-  </si>
-  <si>
-    <t>Building8</t>
-  </si>
-  <si>
-    <t>Others11</t>
-  </si>
-  <si>
-    <t>Shares13</t>
-  </si>
-  <si>
-    <t>Shares14</t>
-  </si>
-  <si>
-    <t>Others12</t>
-  </si>
-  <si>
-    <t>Building9</t>
-  </si>
-  <si>
-    <t>Building10</t>
-  </si>
-  <si>
-    <t>Others13</t>
-  </si>
-  <si>
-    <t>Cash5</t>
-  </si>
-  <si>
-    <t>Gold5</t>
-  </si>
-  <si>
-    <t>Others14</t>
-  </si>
-  <si>
-    <t>Shares15</t>
-  </si>
-  <si>
-    <t>Shares16</t>
-  </si>
-  <si>
-    <t>Others15</t>
-  </si>
-  <si>
-    <t>Building11</t>
-  </si>
-  <si>
-    <t>Building12</t>
-  </si>
-  <si>
-    <t>Shares17</t>
-  </si>
-  <si>
-    <t>Shares18</t>
-  </si>
-  <si>
-    <t>Others16</t>
-  </si>
-  <si>
-    <t>Others17</t>
-  </si>
-  <si>
-    <t>Others18</t>
-  </si>
-  <si>
-    <t>Land13</t>
-  </si>
-  <si>
-    <t>Building13</t>
-  </si>
-  <si>
-    <t>Gold6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest5</t>
-  </si>
-  <si>
-    <t>Others19</t>
-  </si>
-  <si>
-    <t>Building14</t>
-  </si>
-  <si>
-    <t>Land14</t>
-  </si>
-  <si>
-    <t>Shares19</t>
-  </si>
-  <si>
-    <t>Shares20</t>
-  </si>
-  <si>
-    <t>Others20</t>
-  </si>
-  <si>
-    <t>Others21</t>
-  </si>
-  <si>
-    <t>Cash6</t>
-  </si>
-  <si>
-    <t>Gold7</t>
-  </si>
-  <si>
-    <t>Shares21</t>
-  </si>
-  <si>
-    <t>Shares22</t>
-  </si>
-  <si>
-    <t>Others22</t>
-  </si>
-  <si>
-    <t>Land15</t>
-  </si>
-  <si>
-    <t>Building15</t>
-  </si>
-  <si>
-    <t>Risk Free Assest6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest7</t>
-  </si>
-  <si>
-    <t>Others23</t>
-  </si>
-  <si>
-    <t>Shares23</t>
-  </si>
-  <si>
-    <t>Shares24</t>
-  </si>
-  <si>
-    <t>Others24</t>
-  </si>
-  <si>
-    <t>Gold8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest8</t>
-  </si>
-  <si>
-    <t>Others25</t>
-  </si>
-  <si>
-    <t>Risk Free Assest9</t>
-  </si>
-  <si>
-    <t>Risk Free Assest10</t>
-  </si>
-  <si>
-    <t>Shares25</t>
-  </si>
-  <si>
-    <t>Shares26</t>
-  </si>
-  <si>
-    <t>Others26</t>
-  </si>
-  <si>
-    <t>Land16</t>
-  </si>
-  <si>
-    <t>Building16</t>
-  </si>
-  <si>
-    <t>Land17</t>
-  </si>
-  <si>
-    <t>Building17</t>
-  </si>
-  <si>
-    <t>Shares27</t>
-  </si>
-  <si>
-    <t>Shares28</t>
-  </si>
-  <si>
-    <t>Others27</t>
-  </si>
-  <si>
-    <t>Building18</t>
-  </si>
-  <si>
-    <t>Building19</t>
-  </si>
-  <si>
-    <t>Cash7</t>
-  </si>
-  <si>
-    <t>Risk Free Assest11</t>
-  </si>
-  <si>
-    <t>Building20</t>
-  </si>
-  <si>
-    <t>Building21</t>
-  </si>
-  <si>
-    <t>Cash8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest12</t>
-  </si>
-  <si>
-    <t>Shares29</t>
-  </si>
-  <si>
-    <t>Shares30</t>
-  </si>
-  <si>
-    <t>Building22</t>
-  </si>
-  <si>
-    <t>Building23</t>
-  </si>
-  <si>
-    <t>Others28</t>
-  </si>
-  <si>
-    <t>Building24</t>
-  </si>
-  <si>
-    <t>Land18</t>
-  </si>
-  <si>
-    <t>Cash9</t>
-  </si>
-  <si>
-    <t>Gold9</t>
-  </si>
-  <si>
-    <t>Shares31</t>
-  </si>
-  <si>
-    <t>Shares32</t>
-  </si>
-  <si>
-    <t>Others29</t>
-  </si>
-  <si>
-    <t>Cash10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest13</t>
-  </si>
-  <si>
-    <t>Others30</t>
-  </si>
-  <si>
-    <t>Building25</t>
-  </si>
-  <si>
-    <t>Land19</t>
-  </si>
-  <si>
-    <t>Shares33</t>
-  </si>
-  <si>
-    <t>Shares34</t>
-  </si>
-  <si>
-    <t>Shares35</t>
-  </si>
-  <si>
-    <t>Shares36</t>
-  </si>
-  <si>
-    <t>Others31</t>
-  </si>
-  <si>
-    <t>Building26</t>
-  </si>
-  <si>
-    <t>Land20</t>
-  </si>
-  <si>
-    <t>Gold10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest14</t>
   </si>
 </sst>
 </file>
@@ -1987,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A148"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2039,7 +1775,7 @@
         <v>6342461.5</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -2048,10 +1784,10 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I2" t="s">
         <v>240</v>
-      </c>
-      <c r="I2" t="s">
-        <v>241</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -2071,7 +1807,7 @@
         <v>6342461.5</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -2080,10 +1816,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -2112,10 +1848,10 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I4" t="s">
         <v>243</v>
-      </c>
-      <c r="I4" t="s">
-        <v>244</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -2135,7 +1871,7 @@
         <v>12465727.5</v>
       </c>
       <c r="E5" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -2144,10 +1880,10 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -2167,7 +1903,7 @@
         <v>12465727.5</v>
       </c>
       <c r="E6" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -2176,10 +1912,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -2199,7 +1935,7 @@
         <v>49384306</v>
       </c>
       <c r="E7" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -2208,10 +1944,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -2231,7 +1967,7 @@
         <v>49384306</v>
       </c>
       <c r="E8" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -2240,10 +1976,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>246</v>
+      </c>
+      <c r="I8" t="s">
         <v>248</v>
-      </c>
-      <c r="I8" t="s">
-        <v>250</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -2272,10 +2008,10 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -2295,7 +2031,7 @@
         <v>49393878</v>
       </c>
       <c r="E10" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -2304,10 +2040,10 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -2327,7 +2063,7 @@
         <v>49393878</v>
       </c>
       <c r="E11" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -2336,10 +2072,10 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2359,7 +2095,7 @@
         <v>11734697.5</v>
       </c>
       <c r="E12" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -2368,10 +2104,10 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -2391,7 +2127,7 @@
         <v>11734697.5</v>
       </c>
       <c r="E13" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -2400,10 +2136,10 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2423,7 +2159,7 @@
         <v>38281488.5</v>
       </c>
       <c r="E14" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -2432,10 +2168,10 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
+        <v>252</v>
+      </c>
+      <c r="I14" t="s">
         <v>255</v>
-      </c>
-      <c r="I14" t="s">
-        <v>258</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -2455,7 +2191,7 @@
         <v>38281488.5</v>
       </c>
       <c r="E15" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -2464,10 +2200,10 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2496,10 +2232,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2519,7 +2255,7 @@
         <v>28399986</v>
       </c>
       <c r="E17" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -2528,10 +2264,10 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -2551,7 +2287,7 @@
         <v>28399986</v>
       </c>
       <c r="E18" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -2560,10 +2296,10 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I18" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -2583,7 +2319,7 @@
         <v>43833099</v>
       </c>
       <c r="E19" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -2592,10 +2328,10 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I19" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -2615,7 +2351,7 @@
         <v>43833099</v>
       </c>
       <c r="E20" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -2624,10 +2360,10 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -2647,7 +2383,7 @@
         <v>27157906.5</v>
       </c>
       <c r="E21" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -2656,10 +2392,10 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -2679,7 +2415,7 @@
         <v>27157906.5</v>
       </c>
       <c r="E22" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -2688,10 +2424,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I22" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -2711,7 +2447,7 @@
         <v>11733148.5</v>
       </c>
       <c r="E23" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -2720,10 +2456,10 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -2743,7 +2479,7 @@
         <v>11733148.5</v>
       </c>
       <c r="E24" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -2752,10 +2488,10 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I24" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -2775,7 +2511,7 @@
         <v>33948976.5</v>
       </c>
       <c r="E25" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -2784,10 +2520,10 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I25" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -2807,7 +2543,7 @@
         <v>33948976.5</v>
       </c>
       <c r="E26" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -2816,10 +2552,10 @@
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I26" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -2839,7 +2575,7 @@
         <v>16058483.5</v>
       </c>
       <c r="E27" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -2848,10 +2584,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
+        <v>239</v>
+      </c>
+      <c r="I27" t="s">
         <v>240</v>
-      </c>
-      <c r="I27" t="s">
-        <v>271</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -2871,7 +2607,7 @@
         <v>16058483.5</v>
       </c>
       <c r="E28" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -2880,10 +2616,10 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I28" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -2903,7 +2639,7 @@
         <v>38275427.5</v>
       </c>
       <c r="E29" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -2912,10 +2648,10 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I29" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -2935,7 +2671,7 @@
         <v>38275427.5</v>
       </c>
       <c r="E30" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -2944,10 +2680,10 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I30" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -2976,10 +2712,10 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I31" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -2999,7 +2735,7 @@
         <v>10551181.5</v>
       </c>
       <c r="E32" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -3008,10 +2744,10 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I32" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -3031,7 +2767,7 @@
         <v>10551181.5</v>
       </c>
       <c r="E33" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -3040,10 +2776,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I33" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -3063,7 +2799,7 @@
         <v>45075945.5</v>
       </c>
       <c r="E34" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -3072,10 +2808,10 @@
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I34" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -3095,7 +2831,7 @@
         <v>45075945.5</v>
       </c>
       <c r="E35" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -3104,10 +2840,10 @@
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I35" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3136,10 +2872,10 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I36" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -3159,7 +2895,7 @@
         <v>49382967.5</v>
       </c>
       <c r="E37" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -3168,10 +2904,10 @@
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I37" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -3191,7 +2927,7 @@
         <v>49382967.5</v>
       </c>
       <c r="E38" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -3200,10 +2936,10 @@
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I38" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -3232,10 +2968,10 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I39" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -3255,7 +2991,7 @@
         <v>11733316.5</v>
       </c>
       <c r="E40" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -3264,10 +3000,10 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I40" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -3287,7 +3023,7 @@
         <v>11733316.5</v>
       </c>
       <c r="E41" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -3296,10 +3032,10 @@
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I41" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -3319,7 +3055,7 @@
         <v>32716615</v>
       </c>
       <c r="E42" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -3328,10 +3064,10 @@
         <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I42" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -3351,7 +3087,7 @@
         <v>32716615</v>
       </c>
       <c r="E43" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -3360,10 +3096,10 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I43" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -3392,10 +3128,10 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I44" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -3415,7 +3151,7 @@
         <v>39449391</v>
       </c>
       <c r="E45" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -3424,10 +3160,10 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I45" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -3447,7 +3183,7 @@
         <v>39449391</v>
       </c>
       <c r="E46" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -3456,10 +3192,10 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I46" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -3488,10 +3224,10 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I47" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -3511,7 +3247,7 @@
         <v>22844186</v>
       </c>
       <c r="E48" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -3520,10 +3256,10 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I48" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -3543,7 +3279,7 @@
         <v>22844186</v>
       </c>
       <c r="E49" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -3552,10 +3288,10 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I49" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -3584,10 +3320,10 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I50" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -3607,7 +3343,7 @@
         <v>6179161.5</v>
       </c>
       <c r="E51" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -3616,10 +3352,10 @@
         <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I51" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -3639,7 +3375,7 @@
         <v>6179161.5</v>
       </c>
       <c r="E52" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -3648,10 +3384,10 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
+        <v>252</v>
+      </c>
+      <c r="I52" t="s">
         <v>255</v>
-      </c>
-      <c r="I52" t="s">
-        <v>296</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -3680,10 +3416,10 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
+        <v>242</v>
+      </c>
+      <c r="I53" t="s">
         <v>243</v>
-      </c>
-      <c r="I53" t="s">
-        <v>297</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -3703,7 +3439,7 @@
         <v>6183405.5</v>
       </c>
       <c r="E54" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -3712,10 +3448,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I54" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -3735,7 +3471,7 @@
         <v>6183405.5</v>
       </c>
       <c r="E55" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -3744,10 +3480,10 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I55" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -3776,10 +3512,10 @@
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I56" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -3799,7 +3535,7 @@
         <v>17291163.5</v>
       </c>
       <c r="E57" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -3808,10 +3544,10 @@
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I57" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -3831,7 +3567,7 @@
         <v>17291163.5</v>
       </c>
       <c r="E58" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
@@ -3840,10 +3576,10 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
+        <v>252</v>
+      </c>
+      <c r="I58" t="s">
         <v>255</v>
-      </c>
-      <c r="I58" t="s">
-        <v>302</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -3872,10 +3608,10 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I59" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -3895,7 +3631,7 @@
         <v>38278837.5</v>
       </c>
       <c r="E60" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -3904,10 +3640,10 @@
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I60" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -3927,7 +3663,7 @@
         <v>38278837.5</v>
       </c>
       <c r="E61" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
@@ -3936,10 +3672,10 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
+        <v>239</v>
+      </c>
+      <c r="I61" t="s">
         <v>240</v>
-      </c>
-      <c r="I61" t="s">
-        <v>305</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3968,10 +3704,10 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I62" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -3991,7 +3727,7 @@
         <v>6179517</v>
       </c>
       <c r="E63" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -4000,10 +3736,10 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I63" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -4023,7 +3759,7 @@
         <v>6179517</v>
       </c>
       <c r="E64" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -4032,10 +3768,10 @@
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I64" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -4064,10 +3800,10 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I65" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -4087,7 +3823,7 @@
         <v>32716094</v>
       </c>
       <c r="E66" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -4096,10 +3832,10 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I66" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -4119,7 +3855,7 @@
         <v>32716094</v>
       </c>
       <c r="E67" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -4128,10 +3864,10 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I67" t="s">
-        <v>311</v>
+        <v>253</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -4160,10 +3896,10 @@
         <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I68" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -4183,7 +3919,7 @@
         <v>28401244.5</v>
       </c>
       <c r="E69" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -4192,10 +3928,10 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I69" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -4215,7 +3951,7 @@
         <v>28401244.5</v>
       </c>
       <c r="E70" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -4224,10 +3960,10 @@
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I70" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -4247,7 +3983,7 @@
         <v>39460091.5</v>
       </c>
       <c r="E71" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -4256,10 +3992,10 @@
         <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I71" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -4279,7 +4015,7 @@
         <v>39460091.5</v>
       </c>
       <c r="E72" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
@@ -4288,10 +4024,10 @@
         <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I72" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -4320,10 +4056,10 @@
         <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I73" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -4352,10 +4088,10 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I74" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -4384,10 +4120,10 @@
         <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I75" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -4407,7 +4143,7 @@
         <v>38273142</v>
       </c>
       <c r="E76" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -4416,10 +4152,10 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I76" t="s">
-        <v>320</v>
+        <v>241</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -4439,7 +4175,7 @@
         <v>38273142</v>
       </c>
       <c r="E77" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
@@ -4448,10 +4184,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I77" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -4471,7 +4207,7 @@
         <v>43834257.5</v>
       </c>
       <c r="E78" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -4480,10 +4216,10 @@
         <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I78" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -4503,7 +4239,7 @@
         <v>43834257.5</v>
       </c>
       <c r="E79" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -4512,10 +4248,10 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I79" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -4544,10 +4280,10 @@
         <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I80" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -4567,7 +4303,7 @@
         <v>22838112.5</v>
       </c>
       <c r="E81" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
@@ -4576,10 +4312,10 @@
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I81" t="s">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -4599,7 +4335,7 @@
         <v>22838112.5</v>
       </c>
       <c r="E82" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -4608,10 +4344,10 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I82" t="s">
-        <v>326</v>
+        <v>268</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -4631,7 +4367,7 @@
         <v>11740999</v>
       </c>
       <c r="E83" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -4640,10 +4376,10 @@
         <v>21</v>
       </c>
       <c r="H83" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I83" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -4663,7 +4399,7 @@
         <v>11740999</v>
       </c>
       <c r="E84" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
@@ -4672,10 +4408,10 @@
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I84" t="s">
-        <v>328</v>
+        <v>256</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -4704,10 +4440,10 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I85" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -4736,10 +4472,10 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I86" t="s">
-        <v>330</v>
+        <v>257</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -4759,7 +4495,7 @@
         <v>28395129</v>
       </c>
       <c r="E87" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -4768,10 +4504,10 @@
         <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I87" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -4791,7 +4527,7 @@
         <v>28395129</v>
       </c>
       <c r="E88" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -4800,10 +4536,10 @@
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I88" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -4823,7 +4559,7 @@
         <v>33946895.5</v>
       </c>
       <c r="E89" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
@@ -4832,10 +4568,10 @@
         <v>21</v>
       </c>
       <c r="H89" t="s">
+        <v>252</v>
+      </c>
+      <c r="I89" t="s">
         <v>255</v>
-      </c>
-      <c r="I89" t="s">
-        <v>333</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -4855,7 +4591,7 @@
         <v>33946895.5</v>
       </c>
       <c r="E90" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -4864,10 +4600,10 @@
         <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I90" t="s">
-        <v>334</v>
+        <v>275</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -4896,10 +4632,10 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I91" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -4919,7 +4655,7 @@
         <v>5494343</v>
       </c>
       <c r="E92" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -4928,10 +4664,10 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I92" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -4951,7 +4687,7 @@
         <v>5494343</v>
       </c>
       <c r="E93" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -4960,10 +4696,10 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I93" t="s">
-        <v>337</v>
+        <v>287</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -4983,7 +4719,7 @@
         <v>5493032.5</v>
       </c>
       <c r="E94" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -4992,10 +4728,10 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I94" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -5015,7 +4751,7 @@
         <v>5493032.5</v>
       </c>
       <c r="E95" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -5024,10 +4760,10 @@
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I95" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -5056,10 +4792,10 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I96" t="s">
-        <v>340</v>
+        <v>276</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -5079,7 +4815,7 @@
         <v>43825146</v>
       </c>
       <c r="E97" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -5088,10 +4824,10 @@
         <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I97" t="s">
-        <v>341</v>
+        <v>254</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -5111,7 +4847,7 @@
         <v>43825146</v>
       </c>
       <c r="E98" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -5120,10 +4856,10 @@
         <v>21</v>
       </c>
       <c r="H98" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I98" t="s">
-        <v>342</v>
+        <v>267</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -5152,10 +4888,10 @@
         <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I99" t="s">
-        <v>343</v>
+        <v>276</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -5175,7 +4911,7 @@
         <v>11735181.5</v>
       </c>
       <c r="E100" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -5184,10 +4920,10 @@
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I100" t="s">
-        <v>344</v>
+        <v>260</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -5207,7 +4943,7 @@
         <v>11735181.5</v>
       </c>
       <c r="E101" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -5216,10 +4952,10 @@
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I101" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -5248,10 +4984,10 @@
         <v>24</v>
       </c>
       <c r="H102" t="s">
+        <v>242</v>
+      </c>
+      <c r="I102" t="s">
         <v>243</v>
-      </c>
-      <c r="I102" t="s">
-        <v>346</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -5271,7 +5007,7 @@
         <v>49386702.5</v>
       </c>
       <c r="E103" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -5280,10 +5016,10 @@
         <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I103" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -5303,7 +5039,7 @@
         <v>49386702.5</v>
       </c>
       <c r="E104" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -5312,10 +5048,10 @@
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I104" t="s">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -5335,7 +5071,7 @@
         <v>11734830.5</v>
       </c>
       <c r="E105" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
@@ -5344,10 +5080,10 @@
         <v>21</v>
       </c>
       <c r="H105" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I105" t="s">
-        <v>349</v>
+        <v>266</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -5367,7 +5103,7 @@
         <v>11734830.5</v>
       </c>
       <c r="E106" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -5376,10 +5112,10 @@
         <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I106" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -5408,10 +5144,10 @@
         <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I107" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -5431,7 +5167,7 @@
         <v>6178759</v>
       </c>
       <c r="E108" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -5440,10 +5176,10 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I108" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -5463,7 +5199,7 @@
         <v>6178759</v>
       </c>
       <c r="E109" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -5472,10 +5208,10 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I109" t="s">
-        <v>353</v>
+        <v>258</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -5495,7 +5231,7 @@
         <v>17285179</v>
       </c>
       <c r="E110" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -5504,10 +5240,10 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I110" t="s">
-        <v>354</v>
+        <v>259</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -5527,7 +5263,7 @@
         <v>17285179</v>
       </c>
       <c r="E111" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -5536,10 +5272,10 @@
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I111" t="s">
-        <v>355</v>
+        <v>250</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -5559,7 +5295,7 @@
         <v>32722553.5</v>
       </c>
       <c r="E112" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
@@ -5568,10 +5304,10 @@
         <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I112" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -5591,7 +5327,7 @@
         <v>32722553.5</v>
       </c>
       <c r="E113" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -5600,10 +5336,10 @@
         <v>21</v>
       </c>
       <c r="H113" t="s">
+        <v>252</v>
+      </c>
+      <c r="I113" t="s">
         <v>255</v>
-      </c>
-      <c r="I113" t="s">
-        <v>357</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -5632,10 +5368,10 @@
         <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I114" t="s">
-        <v>358</v>
+        <v>271</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -5655,7 +5391,7 @@
         <v>38271930</v>
       </c>
       <c r="E115" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -5664,10 +5400,10 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I115" t="s">
-        <v>359</v>
+        <v>251</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -5687,7 +5423,7 @@
         <v>38271930</v>
       </c>
       <c r="E116" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -5696,10 +5432,10 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I116" t="s">
-        <v>360</v>
+        <v>245</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -5719,7 +5455,7 @@
         <v>49390797.5</v>
       </c>
       <c r="E117" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
@@ -5728,10 +5464,10 @@
         <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I117" t="s">
-        <v>361</v>
+        <v>300</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -5751,7 +5487,7 @@
         <v>49390797.5</v>
       </c>
       <c r="E118" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
@@ -5760,10 +5496,10 @@
         <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I118" t="s">
-        <v>362</v>
+        <v>269</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -5783,7 +5519,7 @@
         <v>22842710.5</v>
       </c>
       <c r="E119" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
@@ -5792,10 +5528,10 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I119" t="s">
-        <v>363</v>
+        <v>258</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -5815,7 +5551,7 @@
         <v>22842710.5</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -5824,10 +5560,10 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
+        <v>239</v>
+      </c>
+      <c r="I120" t="s">
         <v>240</v>
-      </c>
-      <c r="I120" t="s">
-        <v>364</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -5847,7 +5583,7 @@
         <v>22840013.5</v>
       </c>
       <c r="E121" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
@@ -5856,10 +5592,10 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I121" t="s">
-        <v>365</v>
+        <v>289</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -5879,7 +5615,7 @@
         <v>22840013.5</v>
       </c>
       <c r="E122" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -5888,10 +5624,10 @@
         <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I122" t="s">
-        <v>366</v>
+        <v>269</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -5911,7 +5647,7 @@
         <v>11728983</v>
       </c>
       <c r="E123" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -5920,10 +5656,10 @@
         <v>22</v>
       </c>
       <c r="H123" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I123" t="s">
-        <v>367</v>
+        <v>254</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -5943,7 +5679,7 @@
         <v>11728983</v>
       </c>
       <c r="E124" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
@@ -5952,10 +5688,10 @@
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I124" t="s">
-        <v>368</v>
+        <v>301</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -5975,7 +5711,7 @@
         <v>32714600</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -5984,10 +5720,10 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I125" t="s">
-        <v>369</v>
+        <v>288</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -6007,7 +5743,7 @@
         <v>32714600</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -6016,10 +5752,10 @@
         <v>8</v>
       </c>
       <c r="H126" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I126" t="s">
-        <v>370</v>
+        <v>278</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -6048,10 +5784,10 @@
         <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I127" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -6071,7 +5807,7 @@
         <v>28396436</v>
       </c>
       <c r="E128" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -6080,10 +5816,10 @@
         <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I128" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -6103,7 +5839,7 @@
         <v>28396436</v>
       </c>
       <c r="E129" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -6112,10 +5848,10 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I129" t="s">
-        <v>373</v>
+        <v>263</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -6135,7 +5871,7 @@
         <v>17285016</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
@@ -6144,10 +5880,10 @@
         <v>15</v>
       </c>
       <c r="H130" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I130" t="s">
-        <v>374</v>
+        <v>247</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -6167,7 +5903,7 @@
         <v>17285016</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -6176,10 +5912,10 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I131" t="s">
-        <v>375</v>
+        <v>265</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -6199,7 +5935,7 @@
         <v>27164081</v>
       </c>
       <c r="E132" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -6208,10 +5944,10 @@
         <v>22</v>
       </c>
       <c r="H132" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I132" t="s">
-        <v>376</v>
+        <v>253</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -6231,7 +5967,7 @@
         <v>27164081</v>
       </c>
       <c r="E133" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
@@ -6240,10 +5976,10 @@
         <v>21</v>
       </c>
       <c r="H133" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I133" t="s">
-        <v>377</v>
+        <v>302</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -6272,10 +6008,10 @@
         <v>24</v>
       </c>
       <c r="H134" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I134" t="s">
-        <v>378</v>
+        <v>282</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -6295,7 +6031,7 @@
         <v>33948790</v>
       </c>
       <c r="E135" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
@@ -6304,10 +6040,10 @@
         <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I135" t="s">
-        <v>379</v>
+        <v>261</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -6327,7 +6063,7 @@
         <v>33948790</v>
       </c>
       <c r="E136" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
@@ -6336,10 +6072,10 @@
         <v>17</v>
       </c>
       <c r="H136" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I136" t="s">
-        <v>380</v>
+        <v>284</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -6368,10 +6104,10 @@
         <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I137" t="s">
-        <v>381</v>
+        <v>257</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -6391,7 +6127,7 @@
         <v>21609433.5</v>
       </c>
       <c r="E138" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -6400,10 +6136,10 @@
         <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I138" t="s">
-        <v>382</v>
+        <v>250</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -6423,7 +6159,7 @@
         <v>21609433.5</v>
       </c>
       <c r="E139" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -6432,10 +6168,10 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I139" t="s">
-        <v>383</v>
+        <v>244</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -6455,7 +6191,7 @@
         <v>32716320.5</v>
       </c>
       <c r="E140" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
@@ -6464,10 +6200,10 @@
         <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I140" t="s">
-        <v>384</v>
+        <v>267</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -6487,7 +6223,7 @@
         <v>32716320.5</v>
       </c>
       <c r="E141" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
@@ -6496,10 +6232,10 @@
         <v>22</v>
       </c>
       <c r="H141" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I141" t="s">
-        <v>385</v>
+        <v>253</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -6519,7 +6255,7 @@
         <v>39455140</v>
       </c>
       <c r="E142" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
@@ -6528,10 +6264,10 @@
         <v>21</v>
       </c>
       <c r="H142" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I142" t="s">
-        <v>386</v>
+        <v>293</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -6551,7 +6287,7 @@
         <v>39455140</v>
       </c>
       <c r="E143" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
@@ -6560,10 +6296,10 @@
         <v>22</v>
       </c>
       <c r="H143" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I143" t="s">
-        <v>387</v>
+        <v>303</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -6592,10 +6328,10 @@
         <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I144" t="s">
-        <v>388</v>
+        <v>285</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -6615,7 +6351,7 @@
         <v>16060058.5</v>
       </c>
       <c r="E145" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
@@ -6624,10 +6360,10 @@
         <v>8</v>
       </c>
       <c r="H145" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I145" t="s">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -6647,7 +6383,7 @@
         <v>16060058.5</v>
       </c>
       <c r="E146" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -6656,10 +6392,10 @@
         <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I146" t="s">
-        <v>390</v>
+        <v>263</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -6679,7 +6415,7 @@
         <v>27161345.5</v>
       </c>
       <c r="E147" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -6688,10 +6424,10 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
+        <v>246</v>
+      </c>
+      <c r="I147" t="s">
         <v>248</v>
-      </c>
-      <c r="I147" t="s">
-        <v>391</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -6711,7 +6447,7 @@
         <v>27161345.5</v>
       </c>
       <c r="E148" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
@@ -6720,10 +6456,10 @@
         <v>17</v>
       </c>
       <c r="H148" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I148" t="s">
-        <v>392</v>
+        <v>281</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -7633,8 +7369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12777,10 +12513,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:G42"/>
+  <dimension ref="A2:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12793,7 +12529,10 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="23" t="s">
         <v>118</v>
       </c>
@@ -12813,7 +12552,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="41.25" customHeight="1">
+    <row r="3" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="26" t="s">
         <v>124</v>
       </c>
@@ -12828,14 +12570,17 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5392586.120000001</v>
+        <v>5405876.120000001</v>
       </c>
       <c r="G3" s="27">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21564559.48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>21551269.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="26" t="s">
         <v>126</v>
       </c>
@@ -12850,14 +12595,17 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8089978.6000000006</v>
+        <v>8107864.6000000006</v>
       </c>
       <c r="G4" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>32336869.399999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>32318983.399999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="26" t="s">
         <v>127</v>
       </c>
@@ -12872,14 +12620,17 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>10793548.08</v>
+        <v>10783763.08</v>
       </c>
       <c r="G5" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>43103002.32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1">
+        <v>43112787.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="26" t="s">
         <v>128</v>
       </c>
@@ -12894,14 +12645,17 @@
       </c>
       <c r="F6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13482883.560000001</v>
+        <v>13496567.560000001</v>
       </c>
       <c r="G6" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>53883369.239999995</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1">
+        <v>53869685.239999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="26" t="s">
         <v>129</v>
       </c>
@@ -12916,14 +12670,17 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16177458.039999999</v>
+        <v>16189671.039999999</v>
       </c>
       <c r="G7" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64658497.159999989</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>64646284.159999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="26" t="s">
         <v>130</v>
       </c>
@@ -12938,14 +12695,17 @@
       </c>
       <c r="F8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18862188.520000003</v>
+        <v>18883136.520000003</v>
       </c>
       <c r="G8" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75443469.080000013</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1">
+        <v>75422521.080000013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
       <c r="B9" s="26" t="s">
         <v>131</v>
       </c>
@@ -12960,14 +12720,17 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>21567287.200000003</v>
+        <v>21574886.200000003</v>
       </c>
       <c r="G9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>86193288.799999997</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>86185689.799999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
       <c r="B10" s="26" t="s">
         <v>132</v>
       </c>
@@ -12982,14 +12745,17 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>24239996.680000003</v>
+        <v>24220614.680000003</v>
       </c>
       <c r="G10" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>96842441.719999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1">
+        <v>96861823.719999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
       <c r="B11" s="26" t="s">
         <v>133</v>
       </c>
@@ -13004,14 +12770,17 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26637231.16</v>
+        <v>26615725.16</v>
       </c>
       <c r="G11" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>106436509.64</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+        <v>106458015.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
       <c r="B12" s="26" t="s">
         <v>134</v>
       </c>
@@ -13026,14 +12795,17 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29327760.640000001</v>
+        <v>29311548.640000001</v>
       </c>
       <c r="G12" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117215682.55999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>117231894.55999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
       <c r="B13" s="26" t="s">
         <v>135</v>
       </c>
@@ -13048,14 +12820,17 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3322174.12</v>
+        <v>3336387.12</v>
       </c>
       <c r="G13" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>13286171.48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>13271958.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
       <c r="B14" s="26" t="s">
         <v>136</v>
       </c>
@@ -13070,14 +12845,17 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6611505.6000000006</v>
+        <v>6626799.6000000006</v>
       </c>
       <c r="G14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>26423342.399999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1">
+        <v>26408048.399999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
       <c r="B15" s="26" t="s">
         <v>137</v>
       </c>
@@ -13092,14 +12870,17 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9903988.0800000001</v>
+        <v>9897139.0800000001</v>
       </c>
       <c r="G15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>39557362.32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
+        <v>39564211.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
       <c r="B16" s="26" t="s">
         <v>138</v>
       </c>
@@ -13114,14 +12895,17 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13198333.560000001</v>
+        <v>13180244.560000001</v>
       </c>
       <c r="G16" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>52689519.239999995</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>52707608.239999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
       <c r="B17" s="26" t="s">
         <v>139</v>
       </c>
@@ -13136,14 +12920,17 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16473503.039999999</v>
+        <v>16478856.039999999</v>
       </c>
       <c r="G17" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>65840852.159999989</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+        <v>65835499.159999989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
       <c r="B18" s="26" t="s">
         <v>140</v>
       </c>
@@ -13158,14 +12945,17 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19771173.520000003</v>
+        <v>19757023.520000003</v>
       </c>
       <c r="G18" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>78969684.080000013</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
+        <v>78983834.080000013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
       <c r="B19" s="26" t="s">
         <v>142</v>
       </c>
@@ -13180,14 +12970,17 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>23039135.200000003</v>
+        <v>23048873.200000003</v>
       </c>
       <c r="G19" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>92113440.799999997</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>92103702.799999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
       <c r="B20" s="26" t="s">
         <v>143</v>
       </c>
@@ -13202,14 +12995,17 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26290999.680000003</v>
+        <v>26295900.680000003</v>
       </c>
       <c r="G20" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>105140238.72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
+        <v>105135337.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
       <c r="B21" s="26" t="s">
         <v>144</v>
       </c>
@@ -13224,14 +13020,17 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29286071.160000004</v>
+        <v>29293148.160000004</v>
       </c>
       <c r="G21" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117093269.64000002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+        <v>117086192.64000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
       <c r="B22" s="26" t="s">
         <v>145</v>
       </c>
@@ -13246,14 +13045,17 @@
       </c>
       <c r="F22" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3006971.64</v>
+        <v>3008452.64</v>
       </c>
       <c r="G22" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>11958871.559999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>11957390.559999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
       <c r="B23" s="26" t="s">
         <v>146</v>
       </c>
@@ -13268,14 +13070,17 @@
       </c>
       <c r="F23" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6294742.120000001</v>
+        <v>6278524.120000001</v>
       </c>
       <c r="G23" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>25097603.48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
+        <v>25113821.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
       <c r="B24" s="26" t="s">
         <v>147</v>
       </c>
@@ -13290,14 +13095,17 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9567220.5999999996</v>
+        <v>9564473.5999999996</v>
       </c>
       <c r="G24" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>38251627.399999999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1">
+        <v>38254374.399999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
       <c r="B25" s="26" t="s">
         <v>148</v>
       </c>
@@ -13312,14 +13120,17 @@
       </c>
       <c r="F25" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12865764.08</v>
+        <v>12865031.08</v>
       </c>
       <c r="G25" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>51379586.32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>51380319.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
       <c r="B26" s="26" t="s">
         <v>149</v>
       </c>
@@ -13334,14 +13145,17 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16139055.560000001</v>
+        <v>16139485.560000001</v>
       </c>
       <c r="G26" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64532797.239999995</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+        <v>64532367.239999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
       <c r="B27" s="26" t="s">
         <v>150</v>
       </c>
@@ -13356,14 +13170,17 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19439316.039999999</v>
+        <v>19422770.039999999</v>
       </c>
       <c r="G27" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>77659039.159999996</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>77675585.159999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
       <c r="B28" s="26" t="s">
         <v>151</v>
       </c>
@@ -13378,14 +13195,17 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22724086.52</v>
+        <v>22713210.52</v>
       </c>
       <c r="G28" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>90800771.079999998</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>90811647.079999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
       <c r="B29" s="26" t="s">
         <v>152</v>
       </c>
@@ -13400,14 +13220,17 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26000064.200000003</v>
+        <v>25998252.200000003</v>
       </c>
       <c r="G29" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>103936511.8</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+        <v>103938323.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
       <c r="B30" s="26" t="s">
         <v>153</v>
       </c>
@@ -13422,14 +13245,17 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29246482.680000003</v>
+        <v>29263321.680000003</v>
       </c>
       <c r="G30" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>116968755.72</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>116951916.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
       <c r="B31" s="26" t="s">
         <v>154</v>
       </c>
@@ -13444,14 +13270,17 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5641540.1600000001</v>
+        <v>5628133.1600000001</v>
       </c>
       <c r="G31" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>22465800.640000001</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>22479207.640000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
       <c r="B32" s="26" t="s">
         <v>155</v>
       </c>
@@ -13466,14 +13295,17 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8911174.6400000006</v>
+        <v>8924578.6400000006</v>
       </c>
       <c r="G32" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>35622668.560000002</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
+        <v>35609264.560000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
       <c r="B33" s="26" t="s">
         <v>156</v>
       </c>
@@ -13488,14 +13320,17 @@
       </c>
       <c r="F33" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12212410.119999997</v>
+        <v>12211918.119999997</v>
       </c>
       <c r="G33" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>48747935.479999989</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>48748427.479999989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
       <c r="B34" s="26" t="s">
         <v>157</v>
       </c>
@@ -13510,14 +13345,17 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>15502048.600000001</v>
+        <v>15495942.600000001</v>
       </c>
       <c r="G34" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>61884799.399999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>61890905.399999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
       <c r="B35" s="26" t="s">
         <v>158</v>
       </c>
@@ -13532,14 +13370,17 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18770482.079999998</v>
+        <v>18777410.079999998</v>
       </c>
       <c r="G35" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75042868.319999993</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1">
+        <v>75035940.319999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
       <c r="B36" s="26" t="s">
         <v>159</v>
       </c>
@@ -13554,14 +13395,17 @@
       </c>
       <c r="F36" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22069801.560000002</v>
+        <v>22070132.560000002</v>
       </c>
       <c r="G36" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>88170051.239999995</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+        <v>88169720.239999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
       <c r="B37" s="26" t="s">
         <v>160</v>
       </c>
@@ -13576,14 +13420,17 @@
       </c>
       <c r="F37" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>25333288.040000003</v>
+        <v>25344178.040000003</v>
       </c>
       <c r="G37" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>101333067.16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+        <v>101322177.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
       <c r="B38" s="26" t="s">
         <v>161</v>
       </c>
@@ -13598,14 +13445,17 @@
       </c>
       <c r="F38" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>28629636.52</v>
+        <v>28629641.52</v>
       </c>
       <c r="G38" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>114463221.08</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="30" customHeight="1">
+        <v>114463216.08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
       <c r="B39" s="26" t="s">
         <v>162</v>
       </c>
@@ -13620,14 +13470,17 @@
       </c>
       <c r="F39" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5298018.2</v>
+        <v>5306094.2</v>
       </c>
       <c r="G39" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>21150557.800000001</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
+        <v>21142481.800000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
       <c r="B40" s="26" t="s">
         <v>163</v>
       </c>
@@ -13642,14 +13495,17 @@
       </c>
       <c r="F40" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8561899.6799999997</v>
+        <v>8568269.6799999997</v>
       </c>
       <c r="G40" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>34165338.719999999</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
+        <v>34158968.719999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
       <c r="B41" s="26" t="s">
         <v>164</v>
       </c>
@@ -13664,14 +13520,17 @@
       </c>
       <c r="F41" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>11549296.16</v>
+        <v>11543363.16</v>
       </c>
       <c r="G41" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>46126044.640000001</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
+        <v>46131977.640000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
       <c r="B42" s="26" t="s">
         <v>165</v>
       </c>
@@ -13686,11 +13545,11 @@
       </c>
       <c r="F42" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>14832491.640000001</v>
+        <v>14839302.640000001</v>
       </c>
       <c r="G42" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>59269351.560000002</v>
+        <v>59262540.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -13700,10 +13559,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:F44"/>
+  <dimension ref="A2:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13715,7 +13574,10 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="29" t="s">
         <v>25</v>
       </c>
@@ -13732,7 +13594,10 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="29" t="s">
         <v>43</v>
       </c>
@@ -13750,7 +13615,10 @@
         <v>46281</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="29" t="s">
         <v>46</v>
       </c>
@@ -13768,7 +13636,10 @@
         <v>46282</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="29" t="s">
         <v>47</v>
       </c>
@@ -13786,7 +13657,10 @@
         <v>46283</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="29" t="s">
         <v>48</v>
       </c>
@@ -13804,7 +13678,10 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="29" t="s">
         <v>51</v>
       </c>
@@ -13822,7 +13699,10 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="29" t="s">
         <v>52</v>
       </c>
@@ -13885,9 +13765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection sqref="A1:A51"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
